--- a/Data/Transitions/19331968Translation.xlsx
+++ b/Data/Transitions/19331968Translation.xlsx
@@ -28,10 +28,10 @@
     <t>{1.0: 1.0, 886.0: 0.0010655856774592443}</t>
   </si>
   <si>
-    <t>{4.0: 1.0, 496.0: 0.0086292731496847, 559.0: 0.07823909206597987, 944.0: 0.0369675477904083, 971.0: 0.004024767801857585, 152.0: 1.7512315030382182e-06}</t>
-  </si>
-  <si>
-    <t>{5.0: 0.9810626254491548, 403.0: 0.005887612687734961}</t>
+    <t>{4.0: 1.0, 496.0: 0.0086292731496847, 559.0: 0.07823909206597987, 944.0: 0.0369675477904083, 971.0: 0.004024767801857585, 152.0: 1.7174174533209238e-06}</t>
+  </si>
+  <si>
+    <t>{5.0: 0.9810626254491548, 403.0: 0.005871187763315918}</t>
   </si>
   <si>
     <t>{6.0: 1.0, 561.0: 0.0047579584709249965, 979.0: 7.0703902341199035e-06}</t>
@@ -52,7 +52,7 @@
     <t>{12.0: 1.0}</t>
   </si>
   <si>
-    <t>{14.0: 0.9990105540897097, 178.0: 0.00016215071483358378, 623.0: 0.0007617893503810506, 696.0: 0.002913039036710639}</t>
+    <t>{14.0: 0.9990105540897097, 178.0: 0.0001631303974672942, 623.0: 0.0007637695367658331, 696.0: 0.0029920449207345716}</t>
   </si>
   <si>
     <t>{15.0: 1.0}</t>
@@ -67,13 +67,13 @@
     <t>{18.0: 1.0}</t>
   </si>
   <si>
-    <t>{19.0: 1.0, 636.0: 0.002858231707317073, 423.0: 0.0003800630092153496, 477.0: 0.00025028495136528975}</t>
+    <t>{19.0: 1.0, 636.0: 0.002858231707317073, 423.0: 0.0003800630092153496, 477.0: 0.0002502803258980169}</t>
   </si>
   <si>
     <t>{32.0: 1.0}</t>
   </si>
   <si>
-    <t>{679.0: 0.6015689512799339}</t>
+    <t>{679.0: 0.4935636856368564}</t>
   </si>
   <si>
     <t>{34.0: 1.0}</t>
@@ -88,13 +88,13 @@
     <t>{43.0: 1.0}</t>
   </si>
   <si>
-    <t>{44.0: 0.9798798798798799}</t>
+    <t>{44.0: 0.9800980246546859}</t>
   </si>
   <si>
     <t>{45.0: 1.0}</t>
   </si>
   <si>
-    <t>{46.0: 0.9985255086994986, 681.0: 0.005648551134411849, 741.0: 0.001379178879419197, 246.0: 0.0019479775409648218}</t>
+    <t>{46.0: 0.9985255086994986, 681.0: 0.005648551134411849, 741.0: 0.0013872263249506789, 246.0: 0.0019479775409648218}</t>
   </si>
   <si>
     <t>{47.0: 1.0}</t>
@@ -103,7 +103,7 @@
     <t>{48.0: 1.0}</t>
   </si>
   <si>
-    <t>{49.0: 0.8927723425900513}</t>
+    <t>{49.0: 0.8862897962909823}</t>
   </si>
   <si>
     <t>{50.0: 1.0}</t>
@@ -133,7 +133,7 @@
     <t>{70.0: 1.0}</t>
   </si>
   <si>
-    <t>{71.0: 0.9908461157842652}</t>
+    <t>{71.0: 0.9911641791044776}</t>
   </si>
   <si>
     <t>{72.0: 1.0}</t>
@@ -145,22 +145,22 @@
     <t>{74.0: 1.0}</t>
   </si>
   <si>
-    <t>{75.0: 1.0, 917.0: 0.13643574699810795}</t>
+    <t>{75.0: 1.0, 917.0: 0.13677505342411111}</t>
   </si>
   <si>
     <t>{76.0: 1.0}</t>
   </si>
   <si>
-    <t>{77.0: 0.9559682317215604, 85.0: 0.0008874153926401118}</t>
+    <t>{77.0: 0.9559682317215604, 85.0: 0.0008843369396129144}</t>
   </si>
   <si>
     <t>{78.0: 1.0}</t>
   </si>
   <si>
-    <t>{79.0: 0.9993500645023944, 271.0: 0.014820863280979566, 262.0: 0.0030915105248829106}</t>
-  </si>
-  <si>
-    <t>{81.0: 0.985751361164705, 172.0: 0.0017220035424072874}</t>
+    <t>{79.0: 0.9993781418780706, 271.0: 0.014820863280979566, 262.0: 0.0030915105248829106}</t>
+  </si>
+  <si>
+    <t>{81.0: 0.9857571080201947, 172.0: 0.0017130361019852777}</t>
   </si>
   <si>
     <t>{82.0: 0.9989678560896491, 914.0: 0.001365578724140128, 110.0: 0.0001885338002122541}</t>
@@ -172,7 +172,7 @@
     <t>{84.0: 0.6814142894857135}</t>
   </si>
   <si>
-    <t>{85.0: 0.9886598798546655, 178.0: 0.008694216268385058, 492.0: 0.003418852880658436, 97.0: 1.3219344149476795e-05, 696.0: 3.435220455010528e-06}</t>
+    <t>{85.0: 0.9886248980275637, 178.0: 0.008740265076213482, 492.0: 0.003418852880658436, 97.0: 1.317900243106368e-05, 696.0: 3.337415196969153e-06}</t>
   </si>
   <si>
     <t>{86.0: 0.8987559555320275, 694.0: 0.006483790523690773}</t>
@@ -184,13 +184,13 @@
     <t>{89.0: 0.7053752535496958, 88.0: 0.0014757424829367274}</t>
   </si>
   <si>
-    <t>{90.0: 0.999293500201857, 420.0: 0.0017320652248592728, 212.0: 1.4030499998860047e-06}</t>
-  </si>
-  <si>
-    <t>{91.0: 0.96351849239523, 92.0: 0.08226874328514915, 104.0: 1.0, 294.0: 1.0, 566.0: 1.0, 858.0: 0.004867508316901873}</t>
-  </si>
-  <si>
-    <t>{92.0: 0.9177312567148509, 91.0: 0.03648150760476995, 858.0: 0.10635135141719504}</t>
+    <t>{90.0: 0.999293500201857, 420.0: 0.0017320652248592728, 212.0: 1.3973902580550808e-06}</t>
+  </si>
+  <si>
+    <t>{91.0: 0.96351849239523, 92.0: 0.08160476573587713, 104.0: 1.0, 294.0: 1.0, 566.0: 1.0, 858.0: 0.00453890631355781}</t>
+  </si>
+  <si>
+    <t>{92.0: 0.918395234264123, 91.0: 0.03648150760476995, 858.0: 0.09917164778675883}</t>
   </si>
   <si>
     <t>{94.0: 1.0}</t>
@@ -202,7 +202,7 @@
     <t>{96.0: 1.0, 100.0: 0.001081665765278529}</t>
   </si>
   <si>
-    <t>{97.0: 0.9722904830708197}</t>
+    <t>{97.0: 0.9723237186088487}</t>
   </si>
   <si>
     <t>{98.0: 0.801192063367579}</t>
@@ -226,10 +226,10 @@
     <t>{105.0: 1.0}</t>
   </si>
   <si>
-    <t>{107.0: -0.008041738771458164, 543.0: -8.786384890967674e-06}</t>
-  </si>
-  <si>
-    <t>{107.0: -0.005397783378865379, 543.0: -5.8976054398966166e-06, 505.0: 0.009305654974946313}</t>
+    <t>{107.0: 0.39533413779233467, 543.0: 0.00045369001611514527}</t>
+  </si>
+  <si>
+    <t>{107.0: 0.6046658622076654, 543.0: 0.0006939215173807665, 505.0: 0.009305654974946313}</t>
   </si>
   <si>
     <t>{108.0: 0.9995243983639304}</t>
@@ -247,16 +247,16 @@
     <t>{141.0: 0.9640418752844788}</t>
   </si>
   <si>
-    <t>{142.0: 0.9962324013484037, 44.0: 0.0200443155826856}</t>
-  </si>
-  <si>
-    <t>{144.0: 0.04832944130170801}</t>
-  </si>
-  <si>
-    <t>{144.0: 0.9506590101861113}</t>
-  </si>
-  <si>
-    <t>{145.0: 0.9974893393037774, 743.0: 0.002920931244925139, 544.0: 2.533420491138831e-06, 975.0: 0.005110374932125487, 942.0: 0.031023147610285164, 152.0: 0.0003658764490503502}</t>
+    <t>{142.0: 0.9962324013484037, 44.0: 0.019826992689839017}</t>
+  </si>
+  <si>
+    <t>{144.0: 0.04467886430582105}</t>
+  </si>
+  <si>
+    <t>{144.0: 0.9543139172956562}</t>
+  </si>
+  <si>
+    <t>{145.0: 0.9974893393037774, 743.0: 0.0029287602462860877, 544.0: 2.533420491138831e-06, 975.0: 0.005110374932125487, 942.0: 0.031022815778396627, 152.0: 0.0003658795242960575}</t>
   </si>
   <si>
     <t>{146.0: 1.0}</t>
@@ -274,10 +274,10 @@
     <t>{151.0: 1.0}</t>
   </si>
   <si>
-    <t>{152.0: 0.9280208629081054}</t>
-  </si>
-  <si>
-    <t>{185.0: 0.9751506024096386, 700.0: 0.6933559187147691, 173.0: 0.07662878361651851, 404.0: 0.00022369285492871666}</t>
+    <t>{152.0: 0.9280286630608138}</t>
+  </si>
+  <si>
+    <t>{185.0: 0.9751506024096386, 700.0: 0.6933559187147691, 173.0: 0.07662878361651851, 404.0: 0.00022648901561532565}</t>
   </si>
   <si>
     <t>{163.0: 1.0}</t>
@@ -289,7 +289,7 @@
     <t>{165.0: 1.0, 914.0: 0.20441498770307043, 110.0: 0.028221832817634313}</t>
   </si>
   <si>
-    <t>{166.0: 1.0, 893.0: 0.002105263157894737}</t>
+    <t>{166.0: 1.0, 893.0: 0.002254791431792559}</t>
   </si>
   <si>
     <t>{167.0: 0.9994646680942184, 596.0: 0.9994646680942184}</t>
@@ -301,16 +301,16 @@
     <t>{170.0: 0.5220346929207689}</t>
   </si>
   <si>
-    <t>{171.0: 0.911799350983255}</t>
-  </si>
-  <si>
-    <t>{172.0: 0.9982771056394336, 81.0: 0.013738694929124806}</t>
-  </si>
-  <si>
-    <t>{173.0: 0.9233712163834815, 404.0: 0.0026954824780397197, 185.0: 0.024849397590361446, 700.0: 0.0003820790965011307, 420.0: 0.0055694725870200175, 212.0: 4.511520929137317e-06, 831.0: 0.004032258064516129}</t>
-  </si>
-  <si>
-    <t>{174.0: 0.9934177215189873, 502.0: 0.0065949395099733615}</t>
+    <t>{171.0: 0.912151980893484}</t>
+  </si>
+  <si>
+    <t>{172.0: 0.9982860878500139, 81.0: 0.013738775024671702}</t>
+  </si>
+  <si>
+    <t>{173.0: 0.9233712163834815, 404.0: 0.0027291760090152163, 185.0: 0.024849397590361446, 700.0: 0.0003820790965011307, 420.0: 0.0055694725870200175, 212.0: 4.4933219741992875e-06, 831.0: 0.004032258064516129}</t>
+  </si>
+  <si>
+    <t>{174.0: 0.9934541792547835, 502.0: 0.006574812569522062}</t>
   </si>
   <si>
     <t>{175.0: 1.0, 399.0: 0.014406358668653751}</t>
@@ -322,40 +322,40 @@
     <t>{177.0: 1.0, 562.0: 0.0005025757004648825}</t>
   </si>
   <si>
-    <t>{178.0: 0.9759748680013169, 681.0: 0.010330059016298597, 768.0: 0.012138970280452072}</t>
-  </si>
-  <si>
-    <t>{179.0: 1.0, 180.0: 0.531692820600847, 850.0: 0.001415488374311739}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.46830717939915295, 850.0: 0.0012467412429927535}</t>
+    <t>{178.0: 0.9759282428739054, 681.0: 0.010415463666074353, 768.0: 0.012138970280452072}</t>
+  </si>
+  <si>
+    <t>{179.0: 1.0, 180.0: 0.5315600531459954, 850.0: 0.0014179661304327988}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.46843994685400464, 850.0: 0.0012495897215178515}</t>
   </si>
   <si>
     <t>{181.0: 0.9954311821816105}</t>
   </si>
   <si>
-    <t>{182.0: 0.9978009547940806, 277.0: 0.0024306208616427754, 282.0: 0.0027799841143764893}</t>
-  </si>
-  <si>
-    <t>{183.0: 1.0, 182.0: 0.0012746234067207416}</t>
-  </si>
-  <si>
-    <t>{184.0: 0.9918073154221901, 778.0: 0.004088166085144559, 171.0: 8.621384515151897e-05, 593.0: 4.3298011271506575e-06, 420.0: 5.360433881417949e-06, 212.0: 4.3421902644130816e-09}</t>
-  </si>
-  <si>
-    <t>{858.0: 0.45766386834936346}</t>
-  </si>
-  <si>
-    <t>{311.0: 1.140246459639255}</t>
-  </si>
-  <si>
-    <t>{202.0: 0.27479290927306305, 307.0: 0.9834669117201308}</t>
-  </si>
-  <si>
-    <t>{203.0: 0.7663743002352303}</t>
-  </si>
-  <si>
-    <t>{204.0: 0.9989618864007118}</t>
+    <t>{182.0: 0.9977922838424979, 277.0: 0.002432709592326763, 282.0: 0.0028089887640449437}</t>
+  </si>
+  <si>
+    <t>{183.0: 1.0, 182.0: 0.0012796649604467194}</t>
+  </si>
+  <si>
+    <t>{184.0: 0.9917910059913613, 778.0: 0.004072641875622815, 171.0: 8.489469848449557e-05, 593.0: 4.328564394466524e-06, 420.0: 5.360433881417949e-06, 212.0: 4.324674369841023e-09}</t>
+  </si>
+  <si>
+    <t>{858.0: 0.3251826980051353}</t>
+  </si>
+  <si>
+    <t>{311.0: 0.710222727687857}</t>
+  </si>
+  <si>
+    <t>{202.0: 0.27481355893620624, 307.0: 0.9834669117201308}</t>
+  </si>
+  <si>
+    <t>{203.0: 0.7759206783389275}</t>
+  </si>
+  <si>
+    <t>{204.0: 0.9989611160581775}</t>
   </si>
   <si>
     <t>{205.0: 1.0, 206.0: 0.01639538570799976, 578.0: 0.0029847546889122914}</t>
@@ -367,16 +367,16 @@
     <t>{208.0: 0.9887673231218089, 688.0: 0.00763807285546416}</t>
   </si>
   <si>
-    <t>{209.0: 0.9188472487770896}</t>
-  </si>
-  <si>
-    <t>{210.0: 0.9474342928660826, 82.0: 0.0009778885358393656, 788.0: -0.00019169446549450865}</t>
+    <t>{209.0: 0.9187771232698736}</t>
+  </si>
+  <si>
+    <t>{210.0: 0.9474342928660826, 82.0: 0.0009778885358393656, 788.0: -0.0001674437961378676}</t>
   </si>
   <si>
     <t>{211.0: 1.0}</t>
   </si>
   <si>
-    <t>{212.0: 0.9915406543532144, 681.0: 0.001947570591010176}</t>
+    <t>{212.0: 0.9915438969641641, 681.0: 0.001947570591010176}</t>
   </si>
   <si>
     <t>{213.0: 1.0}</t>
@@ -385,7 +385,7 @@
     <t>{214.0: 1.0}</t>
   </si>
   <si>
-    <t>{265.0: 0.33183911513881736}</t>
+    <t>{265.0: 0.24695870567734204}</t>
   </si>
   <si>
     <t>{217.0: 1.0}</t>
@@ -397,28 +397,28 @@
     <t>{219.0: 1.0}</t>
   </si>
   <si>
-    <t>{221.0: 0.40864799025578563}</t>
-  </si>
-  <si>
-    <t>{221.0: 0.5913520097442144}</t>
-  </si>
-  <si>
-    <t>{222.0: 1.0, 490.0: 0.002387696028954705, 503.0: 0.048680958673208055}</t>
-  </si>
-  <si>
-    <t>{223.0: 0.9808052434456929}</t>
-  </si>
-  <si>
-    <t>{627.0: 0.7847902097902097}</t>
+    <t>{221.0: 0.29241719930273097}</t>
+  </si>
+  <si>
+    <t>{221.0: 0.707582800697269}</t>
+  </si>
+  <si>
+    <t>{222.0: 1.0, 490.0: 0.0023962824030009516, 503.0: 0.048910714816067735}</t>
+  </si>
+  <si>
+    <t>{223.0: 0.9809390980939098}</t>
+  </si>
+  <si>
+    <t>{627.0: 0.567653009610521}</t>
   </si>
   <si>
     <t>{225.0: 1.0}</t>
   </si>
   <si>
-    <t>{226.0: 0.7384353461125667, 265.0: 0.011399422295889507}</t>
-  </si>
-  <si>
-    <t>{227.0: 1.0, 297.0: 4.127455836222553e-05, 844.0: 0.003951267698386566}</t>
+    <t>{226.0: 0.7384353461125667, 265.0: 0.008483588724869392}</t>
+  </si>
+  <si>
+    <t>{227.0: 1.0, 297.0: 4.15092773234818e-05, 844.0: 0.003972194637537239}</t>
   </si>
   <si>
     <t>{228.0: 1.0}</t>
@@ -439,7 +439,7 @@
     <t>{233.0: 1.0}</t>
   </si>
   <si>
-    <t>{49.0: 0.10722765740994868}</t>
+    <t>{49.0: 0.1137102037090177}</t>
   </si>
   <si>
     <t>{236.0: 1.0}</t>
@@ -448,19 +448,19 @@
     <t>{237.0: 0.9952565761103924}</t>
   </si>
   <si>
-    <t>{238.0: 1.0, 253.0: 0.0025682932523931824}</t>
+    <t>{238.0: 1.0, 253.0: 0.0025246729400963965}</t>
   </si>
   <si>
     <t>{239.0: 1.0}</t>
   </si>
   <si>
-    <t>{240.0: 1.0, 241.0: 0.8194220168160811}</t>
-  </si>
-  <si>
-    <t>{241.0: 0.18057798318391893}</t>
-  </si>
-  <si>
-    <t>{320.0: 0.4673382942459527}</t>
+    <t>{240.0: 1.0, 241.0: 0.8102185762263944}</t>
+  </si>
+  <si>
+    <t>{241.0: 0.18978142377360568}</t>
+  </si>
+  <si>
+    <t>{242.0: 0.6871389480085133}</t>
   </si>
   <si>
     <t>{243.0: 0.9888238424693986}</t>
@@ -469,10 +469,10 @@
     <t>{244.0: 1.0, 565.0: 0.007684666063101304}</t>
   </si>
   <si>
-    <t>{858.0: 0.36701058067946674}</t>
-  </si>
-  <si>
-    <t>{246.0: 0.9980520224590351, 46.0: 0.001474491300501327, 681.0: 8.34103829653256e-06, 741.0: 2.0365901940626062e-06}</t>
+    <t>{858.0: 0.262525543590365}</t>
+  </si>
+  <si>
+    <t>{246.0: 0.9980520224590351, 46.0: 0.001474491300501327, 681.0: 8.34103829653256e-06, 741.0: 2.0484736044753086e-06}</t>
   </si>
   <si>
     <t>{247.0: 1.0}</t>
@@ -481,7 +481,7 @@
     <t>{248.0: 1.0}</t>
   </si>
   <si>
-    <t>{249.0: 0.9057835330760996}</t>
+    <t>{249.0: 0.904978210564596}</t>
   </si>
   <si>
     <t>{250.0: 1.0, 581.0: 0.009343583678296866}</t>
@@ -493,7 +493,7 @@
     <t>{252.0: 1.0}</t>
   </si>
   <si>
-    <t>{253.0: 0.9974317067476068}</t>
+    <t>{253.0: 0.9974753270599036}</t>
   </si>
   <si>
     <t>{254.0: 1.0}</t>
@@ -517,28 +517,28 @@
     <t>{261.0: 1.0}</t>
   </si>
   <si>
-    <t>{262.0: 0.9747919123771428, 79.0: 0.0006499354976056577}</t>
-  </si>
-  <si>
-    <t>{263.0: 0.9979662270430174, 595.0: 0.0017117774048765308}</t>
-  </si>
-  <si>
-    <t>{265.0: 0.6567614625652931}</t>
-  </si>
-  <si>
-    <t>{400.0: 0.06571137480117686}</t>
+    <t>{262.0: 0.9747919123771428, 79.0: 0.0006218581219293059}</t>
+  </si>
+  <si>
+    <t>{263.0: 0.9979662270430174, 595.0: 0.0017292620441237876}</t>
+  </si>
+  <si>
+    <t>{265.0: 0.7445577055977886}</t>
+  </si>
+  <si>
+    <t>{400.0: 0.06158198808299092}</t>
   </si>
   <si>
     <t>{267.0: 1.0, 887.0: 0.0039276426066777795}</t>
   </si>
   <si>
-    <t>{270.0: 0.9987689782519491, 479.0: 0.02114577354250803, 942.0: 0.0001945930080598899}</t>
+    <t>{270.0: 0.9987689782519491, 479.0: 0.020519381779662598, 942.0: 0.00018904612772049995}</t>
   </si>
   <si>
     <t>{271.0: 0.9851791367190204, 237.0: 0.004743423889607589}</t>
   </si>
   <si>
-    <t>{272.0: 1.0, 203.0: 0.14952367803396382}</t>
+    <t>{272.0: 1.0, 203.0: 0.1488455195162177}</t>
   </si>
   <si>
     <t>{273.0: 1.0}</t>
@@ -547,13 +547,13 @@
     <t>{274.0: 1.0}</t>
   </si>
   <si>
-    <t>{275.0: 1.0, 921.0: 0.009641342074816815, 77.0: 0.026278906797477224, 85.0: 2.4394436572269415e-05}</t>
+    <t>{275.0: 1.0, 921.0: 0.009641342074816815, 77.0: 0.026278906797477224, 85.0: 2.4309812023568202e-05}</t>
   </si>
   <si>
     <t>{276.0: 0.9998061451972473, 167.0: 0.0005353319057815846, 596.0: 0.0005353319057815846}</t>
   </si>
   <si>
-    <t>{277.0: 0.9562339628779037}</t>
+    <t>{277.0: 0.9562004156937055}</t>
   </si>
   <si>
     <t>{279.0: 1.0}</t>
@@ -565,7 +565,7 @@
     <t>{281.0: 1.0, 599.0: 0.005091539378182212, 621.0: 0.04563312178906014}</t>
   </si>
   <si>
-    <t>{282.0: 0.9972200158856235, 182.0: 0.0009244217991987239, 277.0: 0.003463745277607252}</t>
+    <t>{282.0: 0.9971910112359551, 182.0: 0.0009280511970553328, 277.0: 0.003463623760378881}</t>
   </si>
   <si>
     <t>{283.0: 1.0}</t>
@@ -574,10 +574,10 @@
     <t>{284.0: 1.0}</t>
   </si>
   <si>
-    <t>{285.0: 1.0, 311.0: -0.01593502092076081}</t>
-  </si>
-  <si>
-    <t>{286.0: 1.0, 909.0: 0.11458663141263672, 306.0: 0.011054877862037047, 788.0: 0.026298366265383358, 142.0: 1.797534470597053e-05, 44.0: 3.616660946846924e-07}</t>
+    <t>{285.0: 1.0, 311.0: 0.11340988641029195}</t>
+  </si>
+  <si>
+    <t>{286.0: 1.0, 909.0: 0.11458663141263672, 306.0: 0.011054877862037047, 788.0: 0.026172626732387502, 142.0: 1.797534470597053e-05, 44.0: 3.5774486716174825e-07}</t>
   </si>
   <si>
     <t>{287.0: 1.0}</t>
@@ -604,10 +604,10 @@
     <t>{295.0: 1.0}</t>
   </si>
   <si>
-    <t>{297.0: 0.9942090158563912, 298.0: 0.12648512248974872}</t>
-  </si>
-  <si>
-    <t>{298.0: 0.8735148775102513, 297.0: 0.004759120184553127, 749.0: 0.0005137426149499101}</t>
+    <t>{297.0: 0.9941760838557405, 298.0: 0.12648512248974872}</t>
+  </si>
+  <si>
+    <t>{298.0: 0.8735148775102513, 297.0: 0.004786184211172354, 749.0: 0.0005137426149499101}</t>
   </si>
   <si>
     <t>{299.0: 0.9421714285714285, 443.0: 0.013510568751361952}</t>
@@ -616,10 +616,10 @@
     <t>{300.0: 1.0}</t>
   </si>
   <si>
-    <t>{301.0: 0.9865262782189703, 145.0: 0.0003809828658252912, 743.0: 1.1156257142025587e-06, 544.0: 9.676191624546752e-10, 975.0: 1.9518657597301533e-06, 942.0: 1.1849036593952016e-05, 152.0: 1.3974350662682385e-07}</t>
-  </si>
-  <si>
-    <t>{303.0: 0.9475683890577508, 144.0: 0.000958511394140859, 840.0: 0.10136869118905047}</t>
+    <t>{301.0: 0.9865262782189703, 145.0: 0.0003809828658252912, 743.0: 1.118615937012485e-06, 544.0: 9.676191624546752e-10, 975.0: 1.9518657597301533e-06, 942.0: 1.1848909853485841e-05, 152.0: 1.3974468119168037e-07}</t>
+  </si>
+  <si>
+    <t>{303.0: 0.9475683890577508, 144.0: 0.0009544083153175263, 840.0: 0.10136869118905047}</t>
   </si>
   <si>
     <t>{304.0: 0.996803409696324}</t>
@@ -628,19 +628,19 @@
     <t>{305.0: 1.0}</t>
   </si>
   <si>
-    <t>{306.0: 0.9889451221379629, 142.0: 0.003749623306890302, 44.0: 7.544287133983491e-05}</t>
+    <t>{306.0: 0.9889451221379629, 142.0: 0.003749623306890302, 44.0: 7.462491060794599e-05}</t>
   </si>
   <si>
     <t>{308.0: 1.0}</t>
   </si>
   <si>
-    <t>{309.0: 1.0, 426.0: 0.03955197759887994, 204.0: 0.0010381135992881506}</t>
+    <t>{309.0: 1.0, 426.0: 0.039725786605730354, 204.0: 0.0010388839418224993}</t>
   </si>
   <si>
     <t>{310.0: 1.0}</t>
   </si>
   <si>
-    <t>{311.0: -0.12431143871849425}</t>
+    <t>{311.0: 0.17636738590185097}</t>
   </si>
   <si>
     <t>{226.0: 0.2608672648665498, 5.0: 0.016017234919445487, 759.0: 0.003654342218400688}</t>
@@ -652,7 +652,7 @@
     <t>{316.0: 1.0}</t>
   </si>
   <si>
-    <t>{317.0: 1.0, 71.0: 0.009153884215734785}</t>
+    <t>{317.0: 1.0, 71.0: 0.008835820895522388}</t>
   </si>
   <si>
     <t>{318.0: 1.0}</t>
@@ -661,7 +661,7 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.21980065376256058}</t>
+    <t>{242.0: 0.3128610519914868}</t>
   </si>
   <si>
     <t>{398.0: 1.0, 98.0: 0.198807936632421, 532.0: 0.33661933616713396, 560.0: 0.09696578437701743}</t>
@@ -670,19 +670,19 @@
     <t>{399.0: 0.9855936413313463}</t>
   </si>
   <si>
-    <t>{400.0: 0.9333777862149146}</t>
+    <t>{400.0: 0.9375071729331006}</t>
   </si>
   <si>
     <t>{401.0: 1.0, 16.0: 0.005869490159972379}</t>
   </si>
   <si>
-    <t>{402.0: 0.9631065512242976, 141.0: 0.001462755443927208}</t>
-  </si>
-  <si>
-    <t>{403.0: 0.8742309217950237}</t>
-  </si>
-  <si>
-    <t>{405.0: 1.0, 404.0: 0.9970808246670315, 907.0: 1.0}</t>
+    <t>{402.0: 0.9631027328570206, 141.0: 0.001462755443927208}</t>
+  </si>
+  <si>
+    <t>{403.0: 0.8717920424772339}</t>
+  </si>
+  <si>
+    <t>{405.0: 1.0, 404.0: 0.9970443349753695, 907.0: 1.0}</t>
   </si>
   <si>
     <t>{406.0: 1.0}</t>
@@ -691,13 +691,13 @@
     <t>{407.0: 1.0}</t>
   </si>
   <si>
-    <t>{408.0: 1.0, 403.0: 0.11988146551724138}</t>
+    <t>{408.0: 1.0, 403.0: 0.12233676975945017}</t>
   </si>
   <si>
     <t>{409.0: 1.0}</t>
   </si>
   <si>
-    <t>{410.0: 1.0, 77.0: 0.017752861480962393, 85.0: 1.6479797151044226e-05}</t>
+    <t>{410.0: 1.0, 77.0: 0.017752861480962393, 85.0: 1.6422628567032743e-05}</t>
   </si>
   <si>
     <t>{413.0: 1.0}</t>
@@ -706,7 +706,7 @@
     <t>{414.0: 1.0, 759.0: 0.0021496130696474634}</t>
   </si>
   <si>
-    <t>{415.0: 1.0, 277.0: 0.03761711648720459}</t>
+    <t>{415.0: 1.0, 277.0: 0.03764870538838348}</t>
   </si>
   <si>
     <t>{416.0: 1.0}</t>
@@ -715,46 +715,46 @@
     <t>{417.0: 1.0}</t>
   </si>
   <si>
-    <t>{418.0: 1.0, 922.0: 0.07468970214579618, 887.0: 0.003503764981820322}</t>
+    <t>{418.0: 1.0, 922.0: 0.07468428293331203, 887.0: 0.003503764981820322}</t>
   </si>
   <si>
     <t>{419.0: 1.0}</t>
   </si>
   <si>
-    <t>{420.0: 0.9911644356572448, 212.0: 0.0008028873516867112}</t>
+    <t>{420.0: 0.9911644356572448, 212.0: 0.0007996485967383983}</t>
   </si>
   <si>
     <t>{421.0: 1.0}</t>
   </si>
   <si>
-    <t>{597.0: 0.14895191648718398}</t>
-  </si>
-  <si>
-    <t>{423.0: 0.9970319608416004, 202.0: 0.0002402943891510571, 307.0: 0.0008238054895957766, 853.0: 1.403420134868675e-05, 680.0: 8.329277927499078e-08, 477.0: 1.2265567663800832e-05, 207.0: 6.229748827025319e-06}</t>
-  </si>
-  <si>
-    <t>{424.0: 1.0, 585.0: 0.012401653553807174}</t>
+    <t>{597.0: 0.13743568393910327}</t>
+  </si>
+  <si>
+    <t>{423.0: 0.9970319608416004, 202.0: 0.00024031139176103417, 307.0: 0.0008238054895957766, 853.0: 1.403420134868675e-05, 680.0: 8.329277927499078e-08, 477.0: 1.2265456117012493e-05, 207.0: 6.229748827025319e-06}</t>
+  </si>
+  <si>
+    <t>{424.0: 1.0, 585.0: 0.012528627239660514}</t>
   </si>
   <si>
     <t>{425.0: 1.0}</t>
   </si>
   <si>
-    <t>{426.0: 0.96044802240112}</t>
-  </si>
-  <si>
-    <t>{428.0: 0.2659809045191806, 755.0: 0.13485851896447923}</t>
-  </si>
-  <si>
-    <t>{428.0: 0.7293886394220543}</t>
+    <t>{426.0: 0.9602742133942697}</t>
+  </si>
+  <si>
+    <t>{428.0: 0.21107298089609178, 755.0: 0.13485851896447923}</t>
+  </si>
+  <si>
+    <t>{428.0: 0.7842965630451432}</t>
   </si>
   <si>
     <t>{429.0: 1.0}</t>
   </si>
   <si>
-    <t>{430.0: 1.0, 431.0: 0.00019022256039566293, 783.0: 0.0003181673560292714}</t>
-  </si>
-  <si>
-    <t>{431.0: 0.9998097774396043}</t>
+    <t>{430.0: 1.0, 431.0: 0.00012773023374632777, 783.0: 0.0003204101249599487}</t>
+  </si>
+  <si>
+    <t>{431.0: 0.9998722697662537}</t>
   </si>
   <si>
     <t>{432.0: 0.9940968122786304, 304.0: 0.0031965903036760787, 833.0: 0.0007173601147776184, 17.0: 1.0928228081487114e-05, 918.0: 6.570736109710267e-07}</t>
@@ -763,10 +763,10 @@
     <t>{433.0: 1.0}</t>
   </si>
   <si>
-    <t>{434.0: 1.0, 585.0: 0.2490008596890933}</t>
-  </si>
-  <si>
-    <t>{435.0: 0.9967622571692877, 781.0: 0.0030889621087314663, 81.0: 1.5751974037386366e-06, 172.0: 2.751703539139699e-09}</t>
+    <t>{434.0: 1.0, 585.0: 0.24896884611085154}</t>
+  </si>
+  <si>
+    <t>{435.0: 0.9967622571692877, 781.0: 0.0030889621087314663, 81.0: 1.5571981727767432e-06, 172.0: 2.7060790799364145e-09}</t>
   </si>
   <si>
     <t>{436.0: 1.0}</t>
@@ -793,13 +793,13 @@
     <t>{475.0: 0.9825250343608875}</t>
   </si>
   <si>
-    <t>{476.0: 1.0, 402.0: 0.035199312420877364, 141.0: 5.346032149888464e-05}</t>
+    <t>{476.0: 1.0, 402.0: 0.035199172868402566, 141.0: 5.346032149888464e-05}</t>
   </si>
   <si>
     <t>{478.0: 1.0, 170.0: 0.4779653070792311}</t>
   </si>
   <si>
-    <t>{479.0: 0.9788281634662728, 942.0: 0.009007621136192695, 559.0: 0.0005780346820809249, 944.0: 0.011925640126271484}</t>
+    <t>{479.0: 0.9794553272814143, 942.0: 0.009023772688965046, 559.0: 0.0005780346820809249, 944.0: 0.011925640126271484}</t>
   </si>
   <si>
     <t>{480.0: 1.0}</t>
@@ -823,22 +823,22 @@
     <t>{487.0: 1.0}</t>
   </si>
   <si>
-    <t>{489.0: 0.9861400416599904, 935.0: 0.005134841466606503}</t>
-  </si>
-  <si>
-    <t>{490.0: 0.9503030195239726, 503.0: 0.007690879292109704}</t>
+    <t>{489.0: 0.9861400416599904, 935.0: 0.005083835245575205}</t>
+  </si>
+  <si>
+    <t>{490.0: 0.9501259727898774, 503.0: 0.007727197983891121}</t>
   </si>
   <si>
     <t>{491.0: 1.0}</t>
   </si>
   <si>
-    <t>{492.0: 0.995625, 97.0: 0.027692600544453445, 696.0: 0.0010003915011578862, 85.0: 0.0014232697124584544, 178.0: 0.015121184392414243}</t>
+    <t>{492.0: 0.995625, 97.0: 0.02765941663047021, 696.0: 0.0009719090354196443, 85.0: 0.0014232193527988638, 178.0: 0.015120528899491788}</t>
   </si>
   <si>
     <t>{493.0: 0.9993252361673415}</t>
   </si>
   <si>
-    <t>{494.0: 0.979825999243475, 889.0: 0.0006215198201897897, 565.0: 1.2463708207241241e-05}</t>
+    <t>{494.0: 0.979825999243475, 889.0: 0.0010856577184348603, 565.0: 1.2463708207241241e-05}</t>
   </si>
   <si>
     <t>{495.0: 1.0}</t>
@@ -850,19 +850,19 @@
     <t>{498.0: 1.0}</t>
   </si>
   <si>
-    <t>{499.0: 0.9149425095141601, 270.0: 0.0012310217480508822, 479.0: 2.6062991219196422e-05, 942.0: 2.398434774772677e-07}</t>
-  </si>
-  <si>
-    <t>{500.0: 0.9100470457515898, 277.0: 0.00025258275422842895}</t>
+    <t>{499.0: 0.9158799178259773, 270.0: 0.0012310217480508822, 479.0: 2.5290938923166717e-05, 942.0: 2.3300673096199664e-07}</t>
+  </si>
+  <si>
+    <t>{500.0: 0.9113407197519986, 277.0: 0.00025257389296590285}</t>
   </si>
   <si>
     <t>{501.0: 1.0}</t>
   </si>
   <si>
-    <t>{502.0: 0.9933613631334366, 534.0: 0.0004564646810453041, 695.0: 0.0018017591979570605, 857.0: 4.459150730131028e-06}</t>
-  </si>
-  <si>
-    <t>{503.0: 0.9436281620346821}</t>
+    <t>{502.0: 0.9933818663136995, 534.0: 0.0004564646810453041, 695.0: 0.0018018564173032106, 857.0: 4.458093304345013e-06}</t>
+  </si>
+  <si>
+    <t>{503.0: 0.9433620872000411}</t>
   </si>
   <si>
     <t>{504.0: 1.0}</t>
@@ -889,16 +889,16 @@
     <t>{533.0: 1.0}</t>
   </si>
   <si>
-    <t>{534.0: 0.9995435353189547, 402.0: 0.0006615052106698433, 141.0: 1.0046867056022953e-06}</t>
+    <t>{534.0: 0.9995435353189547, 402.0: 0.0006615025880422153, 141.0: 1.0046867056022953e-06}</t>
   </si>
   <si>
     <t>{535.0: 1.0}</t>
   </si>
   <si>
-    <t>{536.0: 0.5244740231859167}</t>
-  </si>
-  <si>
-    <t>{537.0: 1.0, 608.0: 0.027455765710799267}</t>
+    <t>{536.0: 0.5216757544674189}</t>
+  </si>
+  <si>
+    <t>{537.0: 1.0, 608.0: 0.026122291021671826}</t>
   </si>
   <si>
     <t>{538.0: 0.9993696816892531}</t>
@@ -910,13 +910,13 @@
     <t>{540.0: 1.0, 428.0: 0.0009161950239545003}</t>
   </si>
   <si>
-    <t>{542.0: 0.10260447738242569, 911.0: 0.01216659738912571}</t>
-  </si>
-  <si>
-    <t>{542.0: 0.8973955226175743, 911.0: 0.000329448166078341}</t>
-  </si>
-  <si>
-    <t>{543.0: 0.9989074023490849}</t>
+    <t>{542.0: 0.09653726996389683, 911.0: 0.012153140890196356}</t>
+  </si>
+  <si>
+    <t>{542.0: 0.9034627300361032, 911.0: 0.00032908378984788624}</t>
+  </si>
+  <si>
+    <t>{543.0: 0.998852388466504}</t>
   </si>
   <si>
     <t>{544.0: 0.9991442019683354, 975.0: 0.0007094515043562145}</t>
@@ -964,7 +964,7 @@
     <t>{573.0: 1.0}</t>
   </si>
   <si>
-    <t>{580.0: 0.9356220484668233, 752.0: 0.04612635356536104, 728.0: 0.002418704649287826}</t>
+    <t>{580.0: 0.935665293499582, 752.0: 0.046284020554380495, 728.0: 0.002418704649287826}</t>
   </si>
   <si>
     <t>{581.0: 0.9889464225075689, 181.0: 0.004568817818389492}</t>
@@ -973,13 +973,13 @@
     <t>{582.0: 1.0}</t>
   </si>
   <si>
-    <t>{583.0: 0.4522030262777632, 758.0: 0.0008773141218004999}</t>
+    <t>{583.0: 0.5730553232783095, 758.0: 0.001111778335106056}</t>
   </si>
   <si>
     <t>{584.0: 1.0}</t>
   </si>
   <si>
-    <t>{585.0: 0.7385974867570996}</t>
+    <t>{585.0: 0.738502526649488}</t>
   </si>
   <si>
     <t>{586.0: 1.0, 243.0: 0.011176157530601383}</t>
@@ -991,7 +991,7 @@
     <t>{588.0: 1.0, 507.0: 0.0010766580534022395}</t>
   </si>
   <si>
-    <t>{589.0: 1.0, 145.0: 0.0006552002793013001, 743.0: 0.013299521821319988, 10.0: 0.006268500783562598}</t>
+    <t>{589.0: 1.0, 145.0: 0.0006552002793013001, 743.0: 0.010654858616757608, 10.0: 0.006268500783562598}</t>
   </si>
   <si>
     <t>{590.0: 1.0}</t>
@@ -1000,16 +1000,16 @@
     <t>{592.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.322868116371393, 686.0: 0.0031784310045871716, 171.0: 0.0018120628782403129}</t>
-  </si>
-  <si>
-    <t>{593.0: 0.6758937883905117, 686.0: 0.006653743940318745, 171.0: 0.003793381822089934, 85.0: 0.005392352175246436, 178.0: 4.7420024785248584e-05, 492.0: 1.8647119341563785e-05, 97.0: 7.210099310416157e-08, 696.0: 1.873639142285223e-08}</t>
-  </si>
-  <si>
-    <t>{595.0: 0.9982847341337907, 402.0: 0.0010326311441553077}</t>
-  </si>
-  <si>
-    <t>{597.0: 0.8484385079682668}</t>
+    <t>{593.0: 0.4962085975100857, 686.0: 0.004833238028639742, 171.0: 0.002785993901284101}</t>
+  </si>
+  <si>
+    <t>{593.0: 0.5025536608922755, 686.0: 0.004895041072333087, 171.0: 0.0028216186525978513, 85.0: 0.005392161377242684, 178.0: 4.767118435399492e-05, 492.0: 1.8647119341563785e-05, 97.0: 7.188096116246882e-08, 696.0: 1.820294164229931e-08}</t>
+  </si>
+  <si>
+    <t>{595.0: 0.9982672138622891, 402.0: 0.001036591686534674}</t>
+  </si>
+  <si>
+    <t>{597.0: 0.859921524409961}</t>
   </si>
   <si>
     <t>{598.0: 1.0, 599.0: 0.010538833469030598}</t>
@@ -1030,7 +1030,7 @@
     <t>{603.0: 0.9964699949571356}</t>
   </si>
   <si>
-    <t>{604.0: 1.0, 852.0: 0.0025188916876574307, 922.0: 0.0012118805145684393}</t>
+    <t>{604.0: 1.0, 852.0: 0.0025188916876574307, 922.0: 0.0012119753465340602}</t>
   </si>
   <si>
     <t>{605.0: 1.0, 475.0: 0.017474965639112508}</t>
@@ -1042,7 +1042,7 @@
     <t>{607.0: 0.9993920972644377, 276.0: 0.00019373695788784293}</t>
   </si>
   <si>
-    <t>{608.0: 0.9725442342892008}</t>
+    <t>{608.0: 0.9738777089783281}</t>
   </si>
   <si>
     <t>{609.0: 1.0, 886.0: 0.5979012446107541, 610.0: 0.46377929329690437}</t>
@@ -1060,7 +1060,7 @@
     <t>{614.0: 1.0}</t>
   </si>
   <si>
-    <t>{615.0: 0.9872775882732553}</t>
+    <t>{615.0: 0.9874499818115678}</t>
   </si>
   <si>
     <t>{616.0: 1.0}</t>
@@ -1072,7 +1072,7 @@
     <t>{618.0: 1.0}</t>
   </si>
   <si>
-    <t>{619.0: 0.9992133045579098, 861.0: 0.015827253643999197}</t>
+    <t>{619.0: 0.9992133045579098, 861.0: 0.015843873673027867}</t>
   </si>
   <si>
     <t>{620.0: 1.0}</t>
@@ -1084,7 +1084,7 @@
     <t>{622.0: 1.0}</t>
   </si>
   <si>
-    <t>{623.0: 0.9992374561537288}</t>
+    <t>{623.0: 0.9992354740061162}</t>
   </si>
   <si>
     <t>{624.0: 1.0}</t>
@@ -1096,10 +1096,10 @@
     <t>{626.0: 1.0}</t>
   </si>
   <si>
-    <t>{627.0: 0.2152097902097902}</t>
-  </si>
-  <si>
-    <t>{629.0: 1.0, 209.0: 0.048963766190058954, 788.0: 0.513246688327918}</t>
+    <t>{627.0: 0.432346990389479}</t>
+  </si>
+  <si>
+    <t>{629.0: 1.0, 209.0: 0.04903634832856514, 788.0: 0.5105034182722188}</t>
   </si>
   <si>
     <t>{630.0: 1.0, 603.0: 0.0035300050428643467}</t>
@@ -1120,19 +1120,19 @@
     <t>{636.0: 0.997141768292683}</t>
   </si>
   <si>
-    <t>{702.0: 0.0011817950186500195}</t>
+    <t>{702.0: 0.0010744560484802531}</t>
   </si>
   <si>
     <t>{678.0: 1.0}</t>
   </si>
   <si>
-    <t>{679.0: 0.39843104872006607}</t>
-  </si>
-  <si>
-    <t>{680.0: 0.9733726780999389, 481.0: 0.018092175285225227, 529.0: 0.008019367529126948, 530.0: 0.008019367529126948, 853.0: 4.911970472040362e-05, 202.0: 3.560782883014801e-05, 477.0: 4.292948682330291e-05, 307.0: 7.615324208027109e-07, 207.0: 2.1804120894588614e-05}</t>
-  </si>
-  <si>
-    <t>{681.0: 0.9038226351951332, 171.0: 0.004238586592527791, 90.0: 0.0006502117460433972, 420.0: 1.1270053831925288e-06, 212.0: 0.007039869053910691}</t>
+    <t>{679.0: 0.5064363143631436}</t>
+  </si>
+  <si>
+    <t>{680.0: 0.9733726780999389, 481.0: 0.018092175285225227, 529.0: 0.008019367529126948, 530.0: 0.008019367529126948, 853.0: 4.911970472040362e-05, 202.0: 3.560681346302553e-05, 477.0: 4.292909640954372e-05, 307.0: 7.615324208027109e-07, 207.0: 2.1804120894588614e-05}</t>
+  </si>
+  <si>
+    <t>{681.0: 0.9037440348804595, 171.0: 0.00424022582643162, 90.0: 0.0006502117460433972, 420.0: 1.1270053831925288e-06, 212.0: 0.00703989207253523}</t>
   </si>
   <si>
     <t>{682.0: 1.0, 575.0: 0.001903772931810315}</t>
@@ -1147,10 +1147,10 @@
     <t>{685.0: 0.7021698553429772}</t>
   </si>
   <si>
-    <t>{686.0: 0.9797093010679292}</t>
-  </si>
-  <si>
-    <t>{687.0: 0.9931478405315615, 174.0: 0.006537175659195088, 502.0: 4.33979353343334e-05}</t>
+    <t>{686.0: 0.9798120995249867}</t>
+  </si>
+  <si>
+    <t>{687.0: 0.9931478405315615, 174.0: 0.006500967737618479, 502.0: 4.302427357788537e-05}</t>
   </si>
   <si>
     <t>{688.0: 0.9923619271445359, 208.0: 0.010940919037199124}</t>
@@ -1171,19 +1171,19 @@
     <t>{694.0: 0.9935162094763093, 86.0: 0.10124404446797247}</t>
   </si>
   <si>
-    <t>{695.0: 0.9726124982080356, 857.0: 0.002407106197341186}</t>
-  </si>
-  <si>
-    <t>{696.0: 0.996083115505285, 14.0: 0.0009894459102902375, 178.0: 1.605982649391718e-07, 623.0: 7.544958901099875e-07, 492.0: 0.0009375, 97.0: 3.624939584340261e-06}</t>
+    <t>{695.0: 0.9726649784458168, 857.0: 0.0024065353854721126}</t>
+  </si>
+  <si>
+    <t>{696.0: 0.9960326904257072, 14.0: 0.0009894459102902375, 178.0: 1.6156856797685133e-07, 623.0: 7.564571179588972e-07, 492.0: 0.0009375, 97.0: 3.6138772887889494e-06}</t>
   </si>
   <si>
     <t>{697.0: 1.0}</t>
   </si>
   <si>
-    <t>{698.0: 0.20776196468091965}</t>
-  </si>
-  <si>
-    <t>{698.0: 0.7922380353190803, 683.0: 0.00887163848073191}</t>
+    <t>{698.0: 0.4351638564266561}</t>
+  </si>
+  <si>
+    <t>{698.0: 0.5648361435733439, 683.0: 0.00887163848073191}</t>
   </si>
   <si>
     <t>{700.0: 0.305808730390477}</t>
@@ -1192,10 +1192,10 @@
     <t>{701.0: 1.0}</t>
   </si>
   <si>
-    <t>{702.0: 0.8123152474620813}</t>
-  </si>
-  <si>
-    <t>{704.0: 1.0, 477.0: 0.00024935669419516365, 538.0: 0.0006303183107469272, 906.0: 0.029413383692964333}</t>
+    <t>{702.0: 0.8122887726510712}</t>
+  </si>
+  <si>
+    <t>{704.0: 1.0, 477.0: 0.00024935208588283014, 538.0: 0.0006303183107469272, 906.0: 0.029413383692964333}</t>
   </si>
   <si>
     <t>{705.0: 1.0}</t>
@@ -1225,7 +1225,7 @@
     <t>{736.0: 1.0}</t>
   </si>
   <si>
-    <t>{737.0: 1.0, 223.0: 0.019194756554307114, 428.0: 0.0037142610348103997}</t>
+    <t>{737.0: 1.0, 223.0: 0.01906090190609019, 428.0: 0.0037142610348103997}</t>
   </si>
   <si>
     <t>{738.0: 1.0}</t>
@@ -1237,13 +1237,13 @@
     <t>{740.0: 1.0}</t>
   </si>
   <si>
-    <t>{741.0: 0.9986187845303868}</t>
-  </si>
-  <si>
-    <t>{583.0: 0.546159419137084, 758.0: 0.001059597887053955}</t>
-  </si>
-  <si>
-    <t>{743.0: 0.9837784313080407, 145.0: 0.00021810329937778687, 544.0: 0.0008532636435542259, 975.0: 6.058676758964917e-07}</t>
+    <t>{741.0: 0.9986107252014449}</t>
+  </si>
+  <si>
+    <t>{583.0: 0.42530712213653776, 758.0: 0.000825133673748399}</t>
+  </si>
+  <si>
+    <t>{743.0: 0.9864152625210193, 145.0: 0.00021810329937778687, 544.0: 0.0008532636435542259, 975.0: 6.058676758964917e-07}</t>
   </si>
   <si>
     <t>{746.0: 1.0}</t>
@@ -1264,7 +1264,7 @@
     <t>{751.0: 1.0}</t>
   </si>
   <si>
-    <t>{752.0: 0.953873646434639, 580.0: 0.06437795153317666}</t>
+    <t>{752.0: 0.9537159794456196, 580.0: 0.0643347065004179}</t>
   </si>
   <si>
     <t>{753.0: 1.0}</t>
@@ -1306,7 +1306,7 @@
     <t>{769.0: 1.0}</t>
   </si>
   <si>
-    <t>{770.0: 1.0, 992.0: 0.00421455938697318}</t>
+    <t>{770.0: 1.0, 992.0: 0.004208110175975516}</t>
   </si>
   <si>
     <t>{771.0: 1.0}</t>
@@ -1315,7 +1315,7 @@
     <t>{772.0: 1.0, 493.0: 0.0006747638326585695}</t>
   </si>
   <si>
-    <t>{992.0: 0.34352944792819384}</t>
+    <t>{992.0: 0.34353167279893726}</t>
   </si>
   <si>
     <t>{775.0: 1.0}</t>
@@ -1327,34 +1327,34 @@
     <t>{777.0: 1.0}</t>
   </si>
   <si>
-    <t>{778.0: 0.9959118339148554, 171.0: 0.024566408297385458, 184.0: 0.008192684577809846, 593.0: 0.0012337654369680873, 420.0: 0.0015274415281050933, 212.0: 1.2372956890280223e-06}</t>
+    <t>{778.0: 0.9959273581243772, 171.0: 0.024190520926055743, 184.0: 0.008208994008638804, 593.0: 0.0012334130332443034, 420.0: 0.0015274415281050933, 212.0: 1.2323045809641737e-06}</t>
   </si>
   <si>
     <t>{779.0: 1.0}</t>
   </si>
   <si>
-    <t>{781.0: 0.9969110378912686, 81.0: 0.0005083687087665827, 172.0: 8.880664555316855e-07, 435.0: 0.0032377428307123032}</t>
-  </si>
-  <si>
-    <t>{783.0: 0.9996818326439707}</t>
+    <t>{781.0: 0.9969110378912686, 81.0: 0.0005025597569608143, 172.0: 8.733419217314788e-07, 435.0: 0.0032377428307123032}</t>
+  </si>
+  <si>
+    <t>{783.0: 0.99967958987504}</t>
   </si>
   <si>
     <t>{784.0: 1.0}</t>
   </si>
   <si>
-    <t>{785.0: 0.9927452636939863, 889.0: 0.5730622017651047}</t>
+    <t>{785.0: 0.9927452636939863, 889.0: 0.25659597967009595}</t>
   </si>
   <si>
     <t>{786.0: 1.0}</t>
   </si>
   <si>
-    <t>{787.0: 1.0, 500.0: 0.0899529542484101, 277.0: 1.9717414132332207e-06}</t>
-  </si>
-  <si>
-    <t>{788.0: -0.040079086164010985}</t>
-  </si>
-  <si>
-    <t>{789.0: 1.0, 681.0: 0.07824284302484964, 171.0: 0.00036692936478049606, 90.0: 5.628805209951758e-05, 420.0: 9.756350621408776e-08, 212.0: 0.0006094330323799761}</t>
+    <t>{787.0: 1.0, 500.0: 0.08865928024800145, 277.0: 1.971672239396117e-06}</t>
+  </si>
+  <si>
+    <t>{788.0: -0.035008805891847364}</t>
+  </si>
+  <si>
+    <t>{789.0: 1.0, 681.0: 0.07823603868974756, 171.0: 0.00036707127129624806, 90.0: 5.628805209951758e-05, 420.0: 9.756350621408776e-08, 212.0: 0.0006094350250747332}</t>
   </si>
   <si>
     <t>{831.0: 0.9948604959744661}</t>
@@ -1366,16 +1366,16 @@
     <t>{833.0: 0.9992826398852224, 17.0: 0.015223021717511548, 918.0: 0.0009153035400826402}</t>
   </si>
   <si>
-    <t>{834.0: 1.0, 210.0: 0.052565707133917394, 82.0: 5.4255374511563215e-05, 788.0: -1.0635624241439053e-05}</t>
-  </si>
-  <si>
-    <t>{835.0: 0.9951990927166076, 836.0: 0.022287545654982754, 756.0: 0.012552301255230125}</t>
-  </si>
-  <si>
-    <t>{836.0: 0.9777124543450172, 835.0: 0.0048009072833924355}</t>
-  </si>
-  <si>
-    <t>{837.0: 1.0, 536.0: 0.4755259768140833, 486.0: 1.0, 980.0: 0.30157180612251394, 2.0: 1.0, 840.0: 0.004316784414945863, 303.0: 0.00026558267339449093, 144.0: 2.6864975813317807e-07}</t>
+    <t>{834.0: 1.0, 210.0: 0.052565707133917394, 82.0: 5.4255374511563215e-05, 788.0: -9.290144567754873e-06}</t>
+  </si>
+  <si>
+    <t>{835.0: 0.9950128062170731, 836.0: 0.02148231330574205, 756.0: 0.012552301255230125}</t>
+  </si>
+  <si>
+    <t>{836.0: 0.978517686694258, 835.0: 0.004987193782926856}</t>
+  </si>
+  <si>
+    <t>{837.0: 1.0, 536.0: 0.4783242455325811, 486.0: 1.0, 980.0: 0.30157180612251394, 2.0: 1.0, 840.0: 0.004316784414945863, 303.0: 0.00026558267339449093, 144.0: 2.6749975497178876e-07}</t>
   </si>
   <si>
     <t>{838.0: 1.0, 423.0: 0.001701162461015027}</t>
@@ -1384,7 +1384,7 @@
     <t>{839.0: 1.0}</t>
   </si>
   <si>
-    <t>{840.0: 0.8479073387672611, 303.0: 0.052166028268854754, 144.0: 5.276846828173793e-05}</t>
+    <t>{840.0: 0.8479073387672611, 303.0: 0.052166028268854754, 144.0: 5.254258345024819e-05}</t>
   </si>
   <si>
     <t>{841.0: 1.0}</t>
@@ -1393,7 +1393,7 @@
     <t>{842.0: 1.0, 606.0: 0.002308136180034622}</t>
   </si>
   <si>
-    <t>{844.0: 0.9960487323016134}</t>
+    <t>{844.0: 0.9960278053624627}</t>
   </si>
   <si>
     <t>{845.0: 1.0}</t>
@@ -1405,25 +1405,25 @@
     <t>{847.0: 1.0}</t>
   </si>
   <si>
-    <t>{848.0: 0.9232439017315892, 634.0: 0.7423394242266101}</t>
+    <t>{848.0: 0.9228851136919364, 634.0: 0.7475404131057521}</t>
   </si>
   <si>
     <t>{849.0: 1.0}</t>
   </si>
   <si>
-    <t>{850.0: 0.9973377703826956}</t>
+    <t>{850.0: 0.9973324441480493}</t>
   </si>
   <si>
     <t>{851.0: 1.0, 7.0: 0.1141255380919011}</t>
   </si>
   <si>
-    <t>{852.0: 0.9974811083123426, 922.0: 0.0022079438801396994}</t>
-  </si>
-  <si>
-    <t>{853.0: 0.999936846093931, 202.0: 0.724873658328013, 680.0: 0.02549723214989914, 477.0: 0.9972701116692255, 307.0: 0.015502624280626615, 207.0: 0.9999719661302784, 481.0: 0.0003636125129370947}</t>
-  </si>
-  <si>
-    <t>{854.0: 1.0, 976.0: 0.0017019959771004177}</t>
+    <t>{852.0: 0.9974811083123426, 922.0: 0.0022801572723862235}</t>
+  </si>
+  <si>
+    <t>{853.0: 0.999936846093931, 202.0: 0.7248529883544482, 680.0: 0.02549723214989914, 477.0: 0.9972701616016698, 307.0: 0.015502624280626615, 207.0: 0.9999719661302784, 481.0: 0.0003636125129370947}</t>
+  </si>
+  <si>
+    <t>{854.0: 1.0, 976.0: 0.0015838732901367891}</t>
   </si>
   <si>
     <t>{855.0: 1.0}</t>
@@ -1432,10 +1432,10 @@
     <t>{856.0: 1.0}</t>
   </si>
   <si>
-    <t>{857.0: 0.9975697628520787, 695.0: 0.01804123711340206}</t>
-  </si>
-  <si>
-    <t>{858.0: 0.06410669123707292}</t>
+    <t>{857.0: 0.997570339149132, 695.0: 0.017988252569750368}</t>
+  </si>
+  <si>
+    <t>{858.0: 0.308581204304183}</t>
   </si>
   <si>
     <t>{859.0: 1.0}</t>
@@ -1444,7 +1444,7 @@
     <t>{860.0: 1.0}</t>
   </si>
   <si>
-    <t>{861.0: 0.6700430574810726, 490.0: 0.032209337000882715, 619.0: 0.0001431947985895543}</t>
+    <t>{861.0: 0.6741299452051571, 490.0: 0.032521737688368406, 619.0: 0.0001431947985895543}</t>
   </si>
   <si>
     <t>{863.0: 1.0}</t>
@@ -1459,10 +1459,10 @@
     <t>{886.0: 0.3994880704794707, 531.0: 0.010695992768906298, 262.0: 0.0002365587487128925, 442.0: 2.2470573043920794e-05}</t>
   </si>
   <si>
-    <t>{887.0: 0.9493218332843075, 619.0: 0.0006435006435006435, 861.0: 1.019286658644678e-05}</t>
-  </si>
-  <si>
-    <t>{889.0: 0.4244980371896264, 565.0: 0.008512712705545768, 494.0: 0.020174000756525028}</t>
+    <t>{887.0: 0.9493218332843075, 619.0: 0.0006435006435006435, 861.0: 1.0203570006153226e-05}</t>
+  </si>
+  <si>
+    <t>{889.0: 0.7415042216910095, 565.0: 0.008512712705545768, 494.0: 0.020174000756525028}</t>
   </si>
   <si>
     <t>{890.0: 1.0}</t>
@@ -1474,61 +1474,61 @@
     <t>{892.0: 1.0}</t>
   </si>
   <si>
-    <t>{893.0: 0.9978947368421053}</t>
+    <t>{893.0: 0.9977452085682075}</t>
   </si>
   <si>
     <t>{894.0: 0.9841479524438573}</t>
   </si>
   <si>
-    <t>{895.0: 0.9977052524222335, 209.0: 0.0017243782148631708}</t>
-  </si>
-  <si>
-    <t>{896.0: 1.0, 209.0: 0.030464606817988293, 400.0: 0.0009108389839085113, 432.0: 0.0059031877213695395, 895.0: 0.0022947475777664456}</t>
-  </si>
-  <si>
-    <t>{905.0: 1.0, 499.0: 0.08505749048583985}</t>
-  </si>
-  <si>
-    <t>{906.0: 0.9635111446089225, 477.0: 0.0021750516307268886, 202.0: 5.753018094275371e-05, 307.0: 0.00020589697722602968, 680.0: 0.000433120774019691, 481.0: 8.050461541042687e-06}</t>
-  </si>
-  <si>
-    <t>{788.0: 0.5007363616604456}</t>
+    <t>{895.0: 0.9977052524222335, 209.0: 0.0017242466120346155}</t>
+  </si>
+  <si>
+    <t>{896.0: 1.0, 209.0: 0.03046228178952672, 400.0: 0.0009108389839085113, 432.0: 0.0059031877213695395, 895.0: 0.0022947475777664456}</t>
+  </si>
+  <si>
+    <t>{905.0: 1.0, 499.0: 0.08412008217402274}</t>
+  </si>
+  <si>
+    <t>{906.0: 0.9635111446089225, 477.0: 0.0021750114340227723, 202.0: 5.7534504121471e-05, 307.0: 0.00020589697722602968, 680.0: 0.000433120774019691, 481.0: 8.050461541042687e-06}</t>
+  </si>
+  <si>
+    <t>{788.0: 0.49850949482794676}</t>
   </si>
   <si>
     <t>{909.0: 0.8854133685873632}</t>
   </si>
   <si>
-    <t>{911.0: 0.987503954444796, 687.0: 0.006852159468438538, 174.0: 4.510282181757012e-05, 502.0: 2.99421255704161e-07}</t>
-  </si>
-  <si>
-    <t>{861.0: 0.31411949600834177, 490.0: 0.015099947446190023}</t>
+    <t>{911.0: 0.9875177753199558, 687.0: 0.006852159468438538, 174.0: 4.4853007598036755e-05, 502.0: 2.968432005164577e-07}</t>
+  </si>
+  <si>
+    <t>{861.0: 0.31001597755180876, 490.0: 0.014956007118753252}</t>
   </si>
   <si>
     <t>{913.0: 1.0}</t>
   </si>
   <si>
-    <t>{915.0: 1.0, 171.0: 0.05333706621656943}</t>
+    <t>{915.0: 1.0, 171.0: 0.05335769383036576}</t>
   </si>
   <si>
     <t>{916.0: 1.0}</t>
   </si>
   <si>
-    <t>{917.0: 0.863564253001892}</t>
+    <t>{917.0: 0.8632249465758889}</t>
   </si>
   <si>
     <t>{918.0: 0.9990840393863064}</t>
   </si>
   <si>
-    <t>{919.0: 1.0, 297.0: 0.0009905894006934125, 695.0: 0.007544505480605318, 857.0: 1.8671799850093234e-05}</t>
+    <t>{919.0: 1.0, 297.0: 0.0009962226557635632, 695.0: 0.0075449125671298, 857.0: 1.866737209157424e-05}</t>
   </si>
   <si>
     <t>{920.0: 1.0}</t>
   </si>
   <si>
-    <t>{921.0: 0.9903586579251832, 686.0: 0.010458523987164852}</t>
-  </si>
-  <si>
-    <t>{922.0: 0.9203528910639235, 887.0: 0.043174629674277896}</t>
+    <t>{921.0: 0.9903586579251832, 686.0: 0.010459621374040539}</t>
+  </si>
+  <si>
+    <t>{922.0: 0.9202861136135684, 887.0: 0.043174629674277896}</t>
   </si>
   <si>
     <t>{923.0: 1.0}</t>
@@ -1537,7 +1537,7 @@
     <t>{924.0: 1.0}</t>
   </si>
   <si>
-    <t>{925.0: 1.0, 263.0: 0.0020337729569826204, 595.0: 3.4884613327317675e-06}</t>
+    <t>{925.0: 1.0, 263.0: 0.0020337729569826204, 595.0: 3.5240935871107877e-06}</t>
   </si>
   <si>
     <t>{926.0: 1.0}</t>
@@ -1546,7 +1546,7 @@
     <t>{927.0: 1.0}</t>
   </si>
   <si>
-    <t>{928.0: 1.0, 922.0: 0.0015375823955721872, 887.0: 7.212945291645471e-05}</t>
+    <t>{928.0: 1.0, 922.0: 0.0015374708341992789, 887.0: 7.212945291645471e-05}</t>
   </si>
   <si>
     <t>{931.0: 1.0}</t>
@@ -1555,40 +1555,40 @@
     <t>{932.0: 1.0, 108.0: 0.0004756016360696281}</t>
   </si>
   <si>
-    <t>{933.0: 1.0, 249.0: 0.09421646692390045, 299.0: 0.05782857142857143}</t>
+    <t>{933.0: 1.0, 249.0: 0.09502178943540394, 299.0: 0.05782857142857143}</t>
   </si>
   <si>
     <t>{934.0: 1.0, 5.0: 0.0029201396313996318}</t>
   </si>
   <si>
-    <t>{935.0: 0.9947929895859792}</t>
+    <t>{935.0: 0.9948447126870363}</t>
   </si>
   <si>
     <t>{936.0: 1.0}</t>
   </si>
   <si>
-    <t>{937.0: 1.0, 85.0: 0.0035962086312661835}</t>
-  </si>
-  <si>
-    <t>{940.0: 1.0, 785.0: 0.007254736306013725, 206.0: 0.0009120389136603161, 578.0: 0.00016603527800446063, 889.0: 0.0018182412250789639}</t>
+    <t>{937.0: 1.0, 85.0: 0.003634651862191165}</t>
+  </si>
+  <si>
+    <t>{940.0: 1.0, 785.0: 0.007254736306013725, 206.0: 0.0009120389136603161, 578.0: 0.00016603527800446063, 889.0: 0.0008141409204596781}</t>
   </si>
   <si>
     <t>{941.0: 1.0}</t>
   </si>
   <si>
-    <t>{942.0: 0.9597625493653908}</t>
-  </si>
-  <si>
-    <t>{943.0: 1.0, 634.0: 0.2547180118412863, 848.0: 0.07675609826841082}</t>
+    <t>{942.0: 0.9597522834883334}</t>
+  </si>
+  <si>
+    <t>{943.0: 1.0, 634.0: 0.24960620508518372, 848.0: 0.07711488630806371}</t>
   </si>
   <si>
     <t>{944.0: 0.9511068120833203}</t>
   </si>
   <si>
-    <t>{971.0: 0.9959752321981424, 152.0: 0.00043336244194414986}</t>
-  </si>
-  <si>
-    <t>{972.0: 1.0, 615.0: 0.012722411726744723}</t>
+    <t>{971.0: 0.9959752321981424, 152.0: 0.00042499476517949327}</t>
+  </si>
+  <si>
+    <t>{972.0: 1.0, 615.0: 0.012550018188432157}</t>
   </si>
   <si>
     <t>{973.0: 1.0, 565.0: 0.010326270022292377}</t>
@@ -1597,16 +1597,16 @@
     <t>{974.0: 1.0}</t>
   </si>
   <si>
-    <t>{975.0: 0.9941776158300827, 152.0: 0.07117800722589049}</t>
-  </si>
-  <si>
-    <t>{976.0: 0.9982980040228996}</t>
+    <t>{975.0: 0.9941776158300827, 152.0: 0.07117860548757622}</t>
+  </si>
+  <si>
+    <t>{976.0: 0.9984161267098632}</t>
   </si>
   <si>
     <t>{977.0: 1.0}</t>
   </si>
   <si>
-    <t>{978.0: 1.0, 489.0: 0.013859958340009615, 935.0: 7.21689474143249e-05}</t>
+    <t>{978.0: 1.0, 489.0: 0.013859958340009615, 935.0: 7.145206738845646e-05}</t>
   </si>
   <si>
     <t>{979.0: 0.9985473561882626, 561.0: 0.022455805064500716}</t>
@@ -1624,13 +1624,13 @@
     <t>{990.0: 1.0}</t>
   </si>
   <si>
-    <t>{992.0: 0.3755864039975379}</t>
-  </si>
-  <si>
-    <t>{992.0: 0.27666958868729524}</t>
-  </si>
-  <si>
-    <t>{203.0: 0.0841020217308058}</t>
+    <t>{992.0: 0.4315215930889716}</t>
+  </si>
+  <si>
+    <t>{992.0: 0.22073862393611562}</t>
+  </si>
+  <si>
+    <t>{203.0: 0.07523380214485471}</t>
   </si>
   <si>
     <t>{1.0: 0.9935835739493104, 886.0: 0.006416426050689767}</t>
@@ -1654,7 +1654,7 @@
     <t>{10.0: 1.0}</t>
   </si>
   <si>
-    <t>{14.0: 0.9919250645994836, 178.0: 0.0006459948320413437, 623.0: 0.0016149870801033584, 696.0: 0.005813953488372091}</t>
+    <t>{14.0: 0.9919302775984508, 178.0: 0.0006455777921239509, 623.0: 0.001613944480309877, 696.0: 0.005810200129115557}</t>
   </si>
   <si>
     <t>{16.0: 1.0}</t>
@@ -1684,16 +1684,16 @@
     <t>{73.0: 0.8707625109862649, 888.0: 0.007535418671092929, 11.0: 0.12170207034264227}</t>
   </si>
   <si>
-    <t>{75.0: 0.7733159095487784, 917.0: 0.22668409045122156}</t>
-  </si>
-  <si>
-    <t>{77.0: 0.999477670410029, 85.0: 0.0005223295899712719}</t>
+    <t>{75.0: 0.7755896859332865, 917.0: 0.2244103140667137}</t>
+  </si>
+  <si>
+    <t>{77.0: 0.9994692848613502, 85.0: 0.0005307151386493299}</t>
   </si>
   <si>
     <t>{79.0: 0.9797512417816668, 271.0: 0.018221544275942185, 262.0: 0.0020272139423908164}</t>
   </si>
   <si>
-    <t>{81.0: 0.9985303723056825, 172.0: 0.0014696276943174393}</t>
+    <t>{81.0: 0.9985291714332406, 172.0: 0.0014708285667592734}</t>
   </si>
   <si>
     <t>{82.0: 0.9987155701441417, 914.0: 0.0011614816447747813, 110.0: 0.00012294821108364552}</t>
@@ -1705,7 +1705,7 @@
     <t>{84.0: 1.0}</t>
   </si>
   <si>
-    <t>{85.0: 0.9672733850680975, 178.0: 0.023807093342605865, 492.0: 0.00889676964238059, 97.0: 1.8201557532787838e-05, 696.0: 4.5503893831969595e-06}</t>
+    <t>{85.0: 0.9672733850680975, 178.0: 0.023807093342605865, 492.0: 0.008896769642380589, 97.0: 1.8201557532787838e-05, 696.0: 4.5503893831969595e-06}</t>
   </si>
   <si>
     <t>{86.0: 0.9886446353180957, 694.0: 0.011355364681904206}</t>
@@ -1720,10 +1720,10 @@
     <t>{90.0: 0.9975819711770967, 420.0: 0.002417631055372248, 212.0: 3.97767531321528e-07}</t>
   </si>
   <si>
-    <t>{91.0: 0.9594714096575209, 92.0: 0.007395204865203072, 104.0: 0.02094026447201192, 294.0: 0.0035855077645153698, 566.0: 0.007920445430630262, 858.0: 0.0006871678101188415}</t>
-  </si>
-  <si>
-    <t>{92.0: 0.5388406100308102, 91.0: 0.33138061707863925, 858.0: 0.12977877289055065}</t>
+    <t>{91.0: 0.9594714096575212, 92.0: 0.0071649138056952095, 104.0: 0.021170555531519773, 294.0: 0.0035855077645153698, 566.0: 0.007920445430630262, 858.0: 0.0006871678101188415}</t>
+  </si>
+  <si>
+    <t>{92.0: 0.5388406100308102, 91.0: 0.33138061707863936, 858.0: 0.12977877289055065}</t>
   </si>
   <si>
     <t>{96.0: 0.9988221436984688, 100.0: 0.001177856301531213}</t>
@@ -1741,10 +1741,10 @@
     <t>{100.0: 1.0}</t>
   </si>
   <si>
-    <t>{107.0: 0.9991815856777496, 543.0: 0.0008184143222506396}</t>
-  </si>
-  <si>
-    <t>{107.0: 0.9818566632185153, 543.0: 0.0008042237438054801, 505.0: 0.017339113037679228}</t>
+    <t>{107.0: 0.9991869092387435, 543.0: 0.0008130907612562256}</t>
+  </si>
+  <si>
+    <t>{107.0: 0.9818618944736835, 543.0: 0.0007989924886369114, 505.0: 0.017339113037679228}</t>
   </si>
   <si>
     <t>{108.0: 1.0}</t>
@@ -1759,7 +1759,7 @@
     <t>{141.0: 1.0}</t>
   </si>
   <si>
-    <t>{142.0: 0.9847917376007262, 44.0: 0.015208262399273646}</t>
+    <t>{142.0: 0.9847119224187109, 44.0: 0.015288077581289222}</t>
   </si>
   <si>
     <t>{144.0: 1.0}</t>
@@ -1774,13 +1774,13 @@
     <t>{152.0: 1.0}</t>
   </si>
   <si>
-    <t>{185.0: 0.40936536652705274, 700.0: 0.568602215730542, 173.0: 0.02189152298465993, 404.0: 0.00014089475774519664}</t>
+    <t>{185.0: 0.40936536652705274, 700.0: 0.568602215730542, 173.0: 0.021891672992387104, 404.0: 0.00014074475001802581}</t>
   </si>
   <si>
     <t>{165.0: 0.9073568431784624, 914.0: 0.08377516737984302, 110.0: 0.008867989441694459}</t>
   </si>
   <si>
-    <t>{166.0: 0.9992304732589452, 893.0: 0.0007695267410542519}</t>
+    <t>{166.0: 0.9992208804051423, 893.0: 0.0007791195948578105}</t>
   </si>
   <si>
     <t>{167.0: 0.4191015179433184, 596.0: 0.5808984820566816}</t>
@@ -1792,10 +1792,10 @@
     <t>{171.0: 1.0}</t>
   </si>
   <si>
-    <t>{172.0: 0.9847135864272505, 81.0: 0.015286413572749652}</t>
-  </si>
-  <si>
-    <t>{173.0: 0.9461440454101391, 404.0: 0.006089422657506927, 185.0: 0.037415551601674576, 700.0: 0.0008780195002414901, 420.0: 0.008005368064976278, 212.0: 1.3171056375413422e-06, 831.0: 0.0014662756598240467}</t>
+    <t>{172.0: 0.9847136048113009, 81.0: 0.015286395188699144}</t>
+  </si>
+  <si>
+    <t>{173.0: 0.9461505286921807, 404.0: 0.006082939375465398, 185.0: 0.037415551601674576, 700.0: 0.0008780195002414901, 420.0: 0.008005368064976278, 212.0: 1.3171056375413422e-06, 831.0: 0.0014662756598240467}</t>
   </si>
   <si>
     <t>{174.0: 0.9852869053457572, 502.0: 0.014713094654242278}</t>
@@ -1810,10 +1810,10 @@
     <t>{177.0: 0.9988607234406152, 562.0: 0.0011392765593847907}</t>
   </si>
   <si>
-    <t>{178.0: 0.9862602263863139, 681.0: 0.0071717530791852065, 768.0: 0.0065680205345009825}</t>
-  </si>
-  <si>
-    <t>{179.0: 0.5374525139860676, 180.0: 0.46234052964435124, 850.0: 0.00020695636958117784}</t>
+    <t>{178.0: 0.9862044958405798, 681.0: 0.007227483624919332, 768.0: 0.0065680205345009825}</t>
+  </si>
+  <si>
+    <t>{179.0: 0.5383826591317817, 180.0: 0.4614108006709617, 850.0: 0.00020654019725647354}</t>
   </si>
   <si>
     <t>{180.0: 0.9995525727069354, 850.0: 0.0004474272930648772}</t>
@@ -1822,13 +1822,13 @@
     <t>{181.0: 1.0}</t>
   </si>
   <si>
-    <t>{182.0: 0.9971744383835213, 277.0: 0.0020032995522036297, 282.0: 0.0008222620642749617}</t>
-  </si>
-  <si>
-    <t>{183.0: 0.9962354551676935, 182.0: 0.003764544832306641}</t>
-  </si>
-  <si>
-    <t>{184.0: 0.9844541285385574, 778.0: 0.015229946623203339, 171.0: 0.00026738783948413136, 593.0: 2.1066920686628537e-05, 420.0: 2.7465559220133375e-05, 212.0: 4.518848177053863e-09}</t>
+    <t>{182.0: 0.9971634886605052, 277.0: 0.0020111203123151546, 282.0: 0.0008253910271794809}</t>
+  </si>
+  <si>
+    <t>{183.0: 0.9964005235602091, 182.0: 0.0035994764397905762}</t>
+  </si>
+  <si>
+    <t>{184.0: 0.9844403357168338, 778.0: 0.015251161826322662, 171.0: 0.00026050754212293204, 593.0: 2.0524836652109808e-05, 420.0: 2.7465559220133375e-05, 212.0: 4.518848177053863e-09}</t>
   </si>
   <si>
     <t>{858.0: 1.0}</t>
@@ -1870,7 +1870,7 @@
     <t>{221.0: 1.0}</t>
   </si>
   <si>
-    <t>{222.0: 0.8416485635345017, 490.0: 0.002764034691410511, 503.0: 0.15558740177408845}</t>
+    <t>{222.0: 0.8413236115648748, 490.0: 0.002769789667703293, 503.0: 0.1559065987674213}</t>
   </si>
   <si>
     <t>{223.0: 1.0}</t>
@@ -1882,7 +1882,7 @@
     <t>{226.0: 0.9845670939053099, 265.0: 0.015432906094690033}</t>
   </si>
   <si>
-    <t>{227.0: 0.9975617827628105, 297.0: 0.00018045618356780222, 844.0: 0.002257761053621825}</t>
+    <t>{227.0: 0.9975636241524383, 297.0: 0.00017861479393955929, 844.0: 0.002257761053621825}</t>
   </si>
   <si>
     <t>{230.0: 0.9967205946655008, 581.0: 0.003279405334499344}</t>
@@ -1897,13 +1897,13 @@
     <t>{238.0: 0.9953091684434968, 253.0: 0.004690831556503198}</t>
   </si>
   <si>
-    <t>{240.0: 0.23802619996893287, 241.0: 0.7619738000310673}</t>
+    <t>{240.0: 0.23802619996893298, 241.0: 0.7619738000310673}</t>
   </si>
   <si>
     <t>{241.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 1.0}</t>
@@ -1930,7 +1930,7 @@
     <t>{262.0: 0.9992897727272732, 79.0: 0.0007102272727272727}</t>
   </si>
   <si>
-    <t>{263.0: 0.9986023245549508, 595.0: 0.0013976754450492866}</t>
+    <t>{263.0: 0.9986024273630009, 595.0: 0.0013975726369988967}</t>
   </si>
   <si>
     <t>{400.0: 1.0}</t>
@@ -1939,7 +1939,7 @@
     <t>{267.0: 0.9888487040385776, 887.0: 0.011151295961422548}</t>
   </si>
   <si>
-    <t>{270.0: 0.9873640905083751, 479.0: 0.012356147657862112, 942.0: 0.0002797618337629159}</t>
+    <t>{270.0: 0.9873640905083751, 479.0: 0.012350620848352221, 942.0: 0.0002852886432728136}</t>
   </si>
   <si>
     <t>{271.0: 0.9988083631242551, 237.0: 0.001191636875744773}</t>
@@ -1948,7 +1948,7 @@
     <t>{272.0: 0.8427700348432053, 203.0: 0.15722996515679444}</t>
   </si>
   <si>
-    <t>{275.0: 0.9445925803714912, 921.0: 0.009442148944137254, 77.0: 0.04594126166338233, 85.0: 2.400902098948645e-05}</t>
+    <t>{275.0: 0.9445925803714909, 921.0: 0.009442148944137254, 77.0: 0.045940876219367474, 85.0: 2.4394465004310364e-05}</t>
   </si>
   <si>
     <t>{276.0: 0.9986445928937944, 167.0: 0.0005680531756420232, 596.0: 0.0007873539305638049}</t>
@@ -1960,19 +1960,19 @@
     <t>{281.0: 0.961915753029429, 599.0: 0.009040200038468935, 621.0: 0.029044046932102323}</t>
   </si>
   <si>
-    <t>{282.0: 0.9865400946008593, 182.0: 0.0031506270486254973, 277.0: 0.010309278350515464}</t>
+    <t>{282.0: 0.9864431721116683, 182.0: 0.0032475495378161924, 277.0: 0.010309278350515464}</t>
   </si>
   <si>
     <t>{285.0: 0.8919655461591188, 311.0: 0.10803445384088109}</t>
   </si>
   <si>
-    <t>{286.0: 0.8543047303036019, 909.0: 0.09067170299822307, 306.0: 0.012640639376748848, 788.0: 0.04237388612014245, 142.0: 8.90370032194449e-06, 44.0: 1.3750096152363283e-07}</t>
-  </si>
-  <si>
-    <t>{297.0: 0.960343291082585, 298.0: 0.039656708917415205}</t>
-  </si>
-  <si>
-    <t>{298.0: 0.9856576766219582, 297.0: 0.013916655611733712, 749.0: 0.0004256677663083963}</t>
+    <t>{286.0: 0.8543047303036019, 909.0: 0.09067170299822307, 306.0: 0.012640639376748848, 788.0: 0.04237388612014245, 142.0: 8.902978696818409e-06, 44.0: 1.3822258664971235e-07}</t>
+  </si>
+  <si>
+    <t>{297.0: 0.9603432320318249, 298.0: 0.039656767968175}</t>
+  </si>
+  <si>
+    <t>{298.0: 0.9856591443139646, 297.0: 0.013915187919726558, 749.0: 0.0004256677663083963}</t>
   </si>
   <si>
     <t>{299.0: 0.9843037974683544, 443.0: 0.01569620253164557}</t>
@@ -1981,22 +1981,22 @@
     <t>{301.0: 0.9995592383638928, 145.0: 0.0004333709205954404, 743.0: 1.3700028984314633e-06, 544.0: 4.091679947130299e-10, 975.0: 1.2513753235131679e-06, 942.0: 4.685949257780303e-06, 152.0: 8.297886403337237e-08}</t>
   </si>
   <si>
-    <t>{303.0: 0.9111152186701202, 144.0: 0.00210338257484445, 840.0: 0.08678139875503478}</t>
+    <t>{303.0: 0.9111062991603585, 144.0: 0.0021123020846067044, 840.0: 0.08678139875503478}</t>
   </si>
   <si>
     <t>{304.0: 1.0}</t>
   </si>
   <si>
-    <t>{306.0: 0.9980565642100955, 142.0: 0.0019138795084553573, 44.0: 2.9556281449005184e-05}</t>
-  </si>
-  <si>
-    <t>{309.0: 0.925780142266286, 426.0: 0.0731432659158121, 204.0: 0.001076591817902184}</t>
+    <t>{306.0: 0.9980565642100955, 142.0: 0.0019137243927740504, 44.0: 2.9711397130311997e-05}</t>
+  </si>
+  <si>
+    <t>{309.0: 0.9281137216879628, 426.0: 0.07086273685860801, 204.0: 0.0010235414534288639}</t>
   </si>
   <si>
     <t>{226.0: 0.9417289819392755, 5.0: 0.05300183025736111, 759.0: 0.005269187803363386}</t>
   </si>
   <si>
-    <t>{317.0: 0.9822371579452712, 71.0: 0.017762842054728757}</t>
+    <t>{317.0: 0.9820519039534323, 71.0: 0.017948096046568034}</t>
   </si>
   <si>
     <t>{398.0: 0.8644858180802011, 98.0: 0.04427483582506637, 532.0: 0.0650062875506497, 560.0: 0.02623305854408272}</t>
@@ -2014,19 +2014,19 @@
     <t>{403.0: 1.0}</t>
   </si>
   <si>
-    <t>{405.0: 0.49482054480391596, 404.0: 0.3930108881632079, 907.0: 0.11216856703287591}</t>
-  </si>
-  <si>
-    <t>{408.0: 0.94304, 403.0: 0.05696}</t>
-  </si>
-  <si>
-    <t>{410.0: 0.9895157952821079, 77.0: 0.010478728507540655, 85.0: 5.476210351471466e-06}</t>
+    <t>{405.0: 0.49483827665109575, 404.0: 0.39299315631602844, 907.0: 0.11216856703287591}</t>
+  </si>
+  <si>
+    <t>{408.0: 0.9431382570917457, 403.0: 0.05686174290825453}</t>
+  </si>
+  <si>
+    <t>{410.0: 0.9895157952821079, 77.0: 0.010478640591731635, 85.0: 5.564126160484077e-06}</t>
   </si>
   <si>
     <t>{414.0: 0.9969001859888404, 759.0: 0.0030998140111593293}</t>
   </si>
   <si>
-    <t>{415.0: 0.8731132075471701, 277.0: 0.1268867924528302}</t>
+    <t>{415.0: 0.8729333963155408, 277.0: 0.12706660368445913}</t>
   </si>
   <si>
     <t>{418.0: 0.970540792936582, 922.0: 0.027443434380035863, 887.0: 0.002015772683382081}</t>
@@ -2038,10 +2038,10 @@
     <t>{597.0: 1.0}</t>
   </si>
   <si>
-    <t>{423.0: 0.998756373585375, 202.0: 0.000824107165388788, 307.0: 0.00018654015024926568, 853.0: 0.00021136654246143693, 680.0: 4.5181222698519826e-08, 477.0: 2.1032372732886715e-05, 207.0: 5.350025699706738e-07}</t>
-  </si>
-  <si>
-    <t>{424.0: 0.9520371325425476, 585.0: 0.04796286745745229}</t>
+    <t>{423.0: 0.998756373585375, 202.0: 0.000824107165388788, 307.0: 0.00018654015024926568, 853.0: 0.00021136654246143693, 680.0: 4.5181222698519826e-08, 477.0: 2.104891443709804e-05, 207.0: 5.18460865759347e-07}</t>
+  </si>
+  <si>
+    <t>{424.0: 0.9521112255406798, 585.0: 0.04788877445932028}</t>
   </si>
   <si>
     <t>{426.0: 1.0}</t>
@@ -2053,7 +2053,7 @@
     <t>{428.0: 1.0}</t>
   </si>
   <si>
-    <t>{430.0: 0.9996247593749247, 431.0: 0.00018684574941587375, 783.0: 0.00018839487565938212}</t>
+    <t>{430.0: 0.9992810498068837, 431.0: 0.0003566313525363612, 783.0: 0.00036231884057971015}</t>
   </si>
   <si>
     <t>{431.0: 1.0}</t>
@@ -2065,7 +2065,7 @@
     <t>{434.0: 0.6910542610395959, 585.0: 0.3089457389604041}</t>
   </si>
   <si>
-    <t>{435.0: 0.9862700228832952, 781.0: 0.01372517362616835, 81.0: 4.796431193734723e-06, 172.0: 7.059342721768193e-09}</t>
+    <t>{435.0: 0.9862700228832952, 781.0: 0.01372517362616835, 81.0: 4.796425425355315e-06, 172.0: 7.065111101178039e-09}</t>
   </si>
   <si>
     <t>{439.0: 0.973535457348407, 83.0: 0.026464542651593013}</t>
@@ -2086,19 +2086,19 @@
     <t>{478.0: 0.7032887077997673, 170.0: 0.29671129220023285}</t>
   </si>
   <si>
-    <t>{479.0: 0.9240044013343366, 942.0: 0.020920854369834017, 559.0: 0.0015735641227380014, 944.0: 0.05350118017309206}</t>
+    <t>{479.0: 0.9235911012950445, 942.0: 0.02133415440912519, 559.0: 0.0015735641227380014, 944.0: 0.05350118017309206}</t>
   </si>
   <si>
     <t>{481.0: 1.0}</t>
   </si>
   <si>
-    <t>{489.0: 0.9916936790923824, 935.0: 0.008306320907617504}</t>
-  </si>
-  <si>
-    <t>{490.0: 0.977886977886978, 503.0: 0.022113022113022112}</t>
-  </si>
-  <si>
-    <t>{492.0: 0.9720767471169998, 97.0: 0.011519836235458273, 696.0: 0.0004971835719633447, 85.0: 0.0005224471486935846, 178.0: 0.015383785926885338}</t>
+    <t>{489.0: 0.9917305365066564, 935.0: 0.00826946349334409}</t>
+  </si>
+  <si>
+    <t>{490.0: 0.9779141104294476, 503.0: 0.02208588957055216}</t>
+  </si>
+  <si>
+    <t>{492.0: 0.9720767471169989, 97.0: 0.011519836235458273, 696.0: 0.0004971835719633447, 85.0: 0.0005224471486935846, 178.0: 0.015383785926885338}</t>
   </si>
   <si>
     <t>{493.0: 1.0}</t>
@@ -2110,13 +2110,13 @@
     <t>{496.0: 1.0}</t>
   </si>
   <si>
-    <t>{499.0: 0.999597044996642, 270.0: 0.0003978633004063298, 479.0: 4.978971520965257e-06, 942.0: 1.1273143066336438e-07}</t>
+    <t>{499.0: 0.999597044996642, 270.0: 0.0003978633004063298, 479.0: 4.97674446542064e-06, 942.0: 1.1495848620798401e-07}</t>
   </si>
   <si>
     <t>{500.0: 0.9993798449612404, 277.0: 0.0006201550387596901}</t>
   </si>
   <si>
-    <t>{502.0: 0.9978808570755825, 534.0: 0.0009418412997409933, 695.0: 0.0011700158119279725, 857.0: 7.285812748269429e-06}</t>
+    <t>{502.0: 0.9978808570755825, 534.0: 0.0009418412997409933, 695.0: 0.0011699865195521572, 857.0: 7.315105124084836e-06}</t>
   </si>
   <si>
     <t>{503.0: 1.0}</t>
@@ -2191,7 +2191,7 @@
     <t>{578.0: 1.0}</t>
   </si>
   <si>
-    <t>{580.0: 0.9870836901367744, 752.0: 0.011803962810944783, 728.0: 0.0011123470522803114}</t>
+    <t>{580.0: 0.9873633900010385, 752.0: 0.01152426294668118, 728.0: 0.0011123470522803114}</t>
   </si>
   <si>
     <t>{581.0: 0.9981590150730641, 181.0: 0.0018409849269359108}</t>
@@ -2212,10 +2212,10 @@
     <t>{589.0: 0.9635931981692133, 145.0: 0.001457046166586512, 743.0: 0.022665162591345742, 10.0: 0.012284593072854464}</t>
   </si>
   <si>
-    <t>{593.0: 0.9912075672819319, 686.0: 0.0054271725575712314, 171.0: 0.003365260160497021}</t>
-  </si>
-  <si>
-    <t>{593.0: 0.9878301710357595, 686.0: 0.005408680253004251, 171.0: 0.0033537935238321876, 85.0: 0.0032958439862501273, 178.0: 8.111922299795207e-05, 492.0: 3.0314454192108706e-05, 97.0: 6.201917147818674e-08, 696.0: 1.5504792869546685e-08}</t>
+    <t>{593.0: 0.9912172314130084, 686.0: 0.005417508426494019, 171.0: 0.003365260160497021}</t>
+  </si>
+  <si>
+    <t>{593.0: 0.9878398022377088, 686.0: 0.005399049051054196, 171.0: 0.0033537935238321876, 85.0: 0.0032958439862501273, 178.0: 8.111922299795207e-05, 492.0: 3.0314454192108702e-05, 97.0: 6.201917147818674e-08, 696.0: 1.5504792869546685e-08}</t>
   </si>
   <si>
     <t>{595.0: 0.9991012043861227, 402.0: 0.0008987956138774043}</t>
@@ -2233,7 +2233,7 @@
     <t>{603.0: 1.0}</t>
   </si>
   <si>
-    <t>{604.0: 0.996050552922591, 852.0: 0.001172884671243, 922.0: 0.0027765624061661617}</t>
+    <t>{604.0: 0.996050552922591, 852.0: 0.0011727912431587178, 922.0: 0.0027766558342504455}</t>
   </si>
   <si>
     <t>{605.0: 0.9748587570621469, 475.0: 0.025141242937853105}</t>
@@ -2260,7 +2260,7 @@
     <t>{615.0: 1.0}</t>
   </si>
   <si>
-    <t>{619.0: 0.9785175700668657, 861.0: 0.021482429933134154}</t>
+    <t>{619.0: 0.9784562705093452, 861.0: 0.021543729490654872}</t>
   </si>
   <si>
     <t>{621.0: 0.9811912225705329, 894.0: 0.018808777429467086}</t>
@@ -2281,7 +2281,7 @@
     <t>{702.0: 1.0}</t>
   </si>
   <si>
-    <t>{680.0: 0.9903684821037604, 481.0: 0.005206450047061397, 529.0: 0.0018930546760960636, 530.0: 0.0020152730341085933, 853.0: 0.00043920513052004217, 202.0: 3.267379999936262e-05, 477.0: 4.370382324335479e-05, 307.0: 4.5686685484262255e-08, 207.0: 1.1116985253964603e-06}</t>
+    <t>{680.0: 0.9903684821037604, 481.0: 0.005206450047061397, 529.0: 0.0018930546760960636, 530.0: 0.0020152730341085933, 853.0: 0.00043920513052004217, 202.0: 3.267379999936262e-05, 477.0: 4.373819576642562e-05, 307.0: 4.5686685484262255e-08, 207.0: 1.077326002325619e-06}</t>
   </si>
   <si>
     <t>{681.0: 0.9922454003977792, 171.0: 0.00432504279801037, 90.0: 0.0007631323849157586, 420.0: 1.8494445633932727e-06, 212.0: 0.002664574974731451}</t>
@@ -2302,7 +2302,7 @@
     <t>{686.0: 1.0}</t>
   </si>
   <si>
-    <t>{687.0: 0.9971534924458071, 174.0: 0.0028046266191142652, 502.0: 4.188093507885912e-05}</t>
+    <t>{687.0: 0.9971296091852501, 174.0: 0.0028281584829973174, 502.0: 4.223233175207543e-05}</t>
   </si>
   <si>
     <t>{688.0: 0.9574829931972786, 208.0: 0.042517006802721094}</t>
@@ -2317,10 +2317,10 @@
     <t>{694.0: 0.9398443029016281, 86.0: 0.06015569709837227}</t>
   </si>
   <si>
-    <t>{695.0: 0.99381143065162, 857.0: 0.006188569348380052}</t>
-  </si>
-  <si>
-    <t>{696.0: 0.9974846428936632, 14.0: 0.0004997942885116642, 178.0: 3.254928612905661e-07, 623.0: 8.137321532264157e-07, 492.0: 0.002010310775606779, 97.0: 4.11281720352593e-06}</t>
+    <t>{695.0: 0.9937865497076026, 857.0: 0.0062134502923976605}</t>
+  </si>
+  <si>
+    <t>{696.0: 0.9974846410024851, 14.0: 0.0004997969151486987, 178.0: 3.2528273032782204e-07, 623.0: 8.132068258195552e-07, 492.0: 0.002010310775606778, 97.0: 4.11281720352593e-06}</t>
   </si>
   <si>
     <t>{698.0: 1.0}</t>
@@ -2344,7 +2344,7 @@
     <t>{734.0: 0.22142465294888838, 73.0: 0.10797868878371719, 888.0: 0.6705966582673945}</t>
   </si>
   <si>
-    <t>{737.0: 0.9266375545851532, 223.0: 0.03580786026200873, 428.0: 0.03755458515283843}</t>
+    <t>{737.0: 0.9279588336192108, 223.0: 0.03516295025728988, 428.0: 0.03687821612349914}</t>
   </si>
   <si>
     <t>{739.0: 0.999451679232351, 831.0: 0.0005483207676490747}</t>
@@ -2362,7 +2362,7 @@
     <t>{749.0: 1.0}</t>
   </si>
   <si>
-    <t>{752.0: 0.8066928545138231, 580.0: 0.19330714548617692}</t>
+    <t>{752.0: 0.8066160041894903, 580.0: 0.1933839958105095}</t>
   </si>
   <si>
     <t>{755.0: 1.0}</t>
@@ -2383,7 +2383,7 @@
     <t>{768.0: 1.0}</t>
   </si>
   <si>
-    <t>{770.0: 0.9803571428571428, 992.0: 0.019642857142857142}</t>
+    <t>{770.0: 0.9801712483100496, 992.0: 0.01982875168995043}</t>
   </si>
   <si>
     <t>{772.0: 0.9989726027397261, 493.0: 0.0010273972602739725}</t>
@@ -2392,19 +2392,19 @@
     <t>{992.0: 1.0}</t>
   </si>
   <si>
-    <t>{778.0: 0.9748082592125864, 171.0: 0.019209705310307332, 184.0: 0.002495035303396295, 593.0: 0.001513491933539366, 420.0: 0.0019731835966043188, 212.0: 3.2464356640413275e-07}</t>
-  </si>
-  <si>
-    <t>{781.0: 0.9989279297523234, 81.0: 0.0003490876846484364, 172.0: 5.137840003002333e-07, 435.0: 0.0007224687790277634}</t>
+    <t>{778.0: 0.9753594977972541, 171.0: 0.01871541026304222, 184.0: 0.002477036224262868, 593.0: 0.001474547475269994, 420.0: 0.0019731835966043188, 212.0: 3.2464356640413275e-07}</t>
+  </si>
+  <si>
+    <t>{781.0: 0.9989279297523234, 81.0: 0.0003490872648216672, 172.0: 5.142038270695587e-07, 435.0: 0.0007224687790277634}</t>
   </si>
   <si>
     <t>{783.0: 1.0}</t>
   </si>
   <si>
-    <t>{785.0: 0.7952854710047504, 889.0: 0.2047145289952496}</t>
-  </si>
-  <si>
-    <t>{787.0: 0.8290401866880288, 500.0: 0.17095484553817908, 277.0: 4.967773791507788e-06}</t>
+    <t>{785.0: 0.6852693950668322, 889.0: 0.314730604933168}</t>
+  </si>
+  <si>
+    <t>{787.0: 0.8293916229455557, 500.0: 0.1706034092806525, 277.0: 4.967773791507788e-06}</t>
   </si>
   <si>
     <t>{788.0: 1.0}</t>
@@ -2422,19 +2422,19 @@
     <t>{834.0: 0.9681697612732096, 210.0: 0.03162121602224349, 82.0: 4.572371661964563e-05, 788.0: 0.00016329898792730586}</t>
   </si>
   <si>
-    <t>{835.0: 0.9830399431369468, 836.0: 0.011920702428051405, 756.0: 0.005039354435002383}</t>
-  </si>
-  <si>
-    <t>{836.0: 0.9918426103646831, 835.0: 0.008157389635316698}</t>
-  </si>
-  <si>
-    <t>{837.0: 0.7794419019431164, 536.0: 0.11351593219830385, 486.0: 0.07358523540319548, 980.0: 0.01877165457752797, 2.0: 0.01452399250116302, 840.0: 0.00015083648348333185, 303.0: 1.0422831267752875e-05, 144.0: 2.4061942134096673e-08}</t>
+    <t>{835.0: 0.9827025729172754, 836.0: 0.012258072647722114, 756.0: 0.005039354435002383}</t>
+  </si>
+  <si>
+    <t>{836.0: 0.9922515952598, 835.0: 0.007748404740200545}</t>
+  </si>
+  <si>
+    <t>{837.0: 0.7794419019431164, 536.0: 0.11351593219830385, 486.0: 0.07358523540319548, 980.0: 0.01877165457752797, 2.0: 0.01452399250116302, 840.0: 0.00015083648348333185, 303.0: 1.042272923176079e-05, 144.0: 2.4163978126184215e-08}</t>
   </si>
   <si>
     <t>{838.0: 0.9948208890807074, 423.0: 0.005179110919292188}</t>
   </si>
   <si>
-    <t>{840.0: 0.9352264726590003, 303.0: 0.06462433687495522, 144.0: 0.0001491904660445292}</t>
+    <t>{840.0: 0.9352264726590003, 303.0: 0.06462370422455951, 144.0: 0.0001498231164402462}</t>
   </si>
   <si>
     <t>{842.0: 0.9956627812415287, 606.0: 0.00433721875847113}</t>
@@ -2452,25 +2452,25 @@
     <t>{851.0: 0.7625494688606541, 7.0: 0.23745053113934594}</t>
   </si>
   <si>
-    <t>{852.0: 0.9899146625290924, 922.0: 0.01008533747090768}</t>
-  </si>
-  <si>
-    <t>{853.0: 0.8260954051223964, 202.0: 0.061455739406782554, 680.0: 0.002015624264566887, 477.0: 0.10588495780442554, 307.0: 8.593151202294275e-05, 207.0: 0.004452673901477769, 481.0: 9.667988327615617e-06}</t>
-  </si>
-  <si>
-    <t>{854.0: 0.9973455598455604, 976.0: 0.002654440154440155}</t>
-  </si>
-  <si>
-    <t>{857.0: 0.992811225258056, 695.0: 0.007188774741944105}</t>
-  </si>
-  <si>
-    <t>{861.0: 0.991424518319087, 490.0: 0.008453820911291304, 619.0: 0.00012166076962164191}</t>
+    <t>{852.0: 0.9898358092259583, 922.0: 0.010164190774042221}</t>
+  </si>
+  <si>
+    <t>{853.0: 0.8260954051223964, 202.0: 0.061455739406782554, 680.0: 0.002015624264566887, 477.0: 0.1060226296937994, 307.0: 8.593151202294275e-05, 207.0: 0.004315002012103898, 481.0: 9.667988327615617e-06}</t>
+  </si>
+  <si>
+    <t>{854.0: 0.9973352713178297, 976.0: 0.0026647286821705413}</t>
+  </si>
+  <si>
+    <t>{857.0: 0.9927417586919554, 695.0: 0.007258241308044793}</t>
+  </si>
+  <si>
+    <t>{861.0: 0.9914155819912314, 490.0: 0.008462764860626144, 619.0: 0.00012165314814240272}</t>
   </si>
   <si>
     <t>{886.0: 0.9906196327123794, 531.0: 0.009182424896677302, 262.0: 0.00018743217549493918, 442.0: 1.051021544831435e-05}</t>
   </si>
   <si>
-    <t>{887.0: 0.9994315597999088, 619.0: 0.0005562287233213199, 861.0: 1.2211476769630603e-05}</t>
+    <t>{887.0: 0.9994315597999088, 619.0: 0.0005561938781885773, 861.0: 1.2246321902373165e-05}</t>
   </si>
   <si>
     <t>{889.0: 0.9590857191621842, 565.0: 0.012464778704103075, 494.0: 0.02844950213371266}</t>
@@ -2497,10 +2497,10 @@
     <t>{909.0: 1.0}</t>
   </si>
   <si>
-    <t>{911.0: 0.9950083194675541, 687.0: 0.0049774716761021975, 174.0: 1.3999800095412306e-05, 502.0: 2.090562483137727e-07}</t>
-  </si>
-  <si>
-    <t>{861.0: 0.9915451278799412, 490.0: 0.008454872120059184}</t>
+    <t>{911.0: 0.9950083194675541, 687.0: 0.0049773524584954265, 174.0: 1.4117263642249503e-05, 502.0: 2.1081030824663275e-07}</t>
+  </si>
+  <si>
+    <t>{861.0: 0.9915361828184511, 490.0: 0.008463817181548879}</t>
   </si>
   <si>
     <t>{915.0: 0.9760407900598982, 171.0: 0.023959209940101974}</t>
@@ -2512,7 +2512,7 @@
     <t>{918.0: 1.0}</t>
   </si>
   <si>
-    <t>{919.0: 0.9888946350590236, 297.0: 0.005990275426909785, 695.0: 0.005083434427885524, 857.0: 3.165508618097213e-05}</t>
+    <t>{919.0: 0.9890254656143604, 297.0: 0.005859444871573597, 695.0: 0.005083307159629681, 857.0: 3.178235443681668e-05}</t>
   </si>
   <si>
     <t>{921.0: 0.9865234019304318, 686.0: 0.013476598069568387}</t>
@@ -2521,7 +2521,7 @@
     <t>{922.0: 0.9315741024854248, 887.0: 0.06842589751457502}</t>
   </si>
   <si>
-    <t>{925.0: 0.9958527083071509, 263.0: 0.004141495125086512, 595.0: 5.796567762552023e-06}</t>
+    <t>{925.0: 0.9958527083071509, 263.0: 0.004141495551461485, 595.0: 5.796141387578684e-06}</t>
   </si>
   <si>
     <t>{928.0: 0.9986957331842743, 922.0: 0.001215021188261221, 887.0: 8.924562746451e-05}</t>
@@ -2530,7 +2530,7 @@
     <t>{932.0: 0.9982325910215623, 108.0: 0.0017674089784376105}</t>
   </si>
   <si>
-    <t>{933.0: 0.8485852738691527, 249.0: 0.11697890198493721, 299.0: 0.03443582414590989}</t>
+    <t>{933.0: 0.8490706747101121, 249.0: 0.11649350114397818, 299.0: 0.03443582414590989}</t>
   </si>
   <si>
     <t>{934.0: 0.9935019726154563, 5.0: 0.006498027384543977}</t>
@@ -2542,13 +2542,13 @@
     <t>{937.0: 0.9949109414758269, 85.0: 0.0050890585241730275}</t>
   </si>
   <si>
-    <t>{940.0: 0.9864997747918501, 785.0: 0.010626942004023135, 206.0: 0.0015124655498356696, 578.0: 0.0003739314319291597, 889.0: 0.0009868862223623436}</t>
+    <t>{940.0: 0.9864997747918501, 785.0: 0.010096577353725059, 206.0: 0.0015124655498356696, 578.0: 0.0003739314319291597, 889.0: 0.00151725087266042}</t>
   </si>
   <si>
     <t>{942.0: 1.0}</t>
   </si>
   <si>
-    <t>{943.0: 0.730535835668062, 634.0: 0.1081245466200308, 848.0: 0.16133961771190689}</t>
+    <t>{943.0: 0.7045586858250901, 634.0: 0.10993183872972909, 848.0: 0.1855094754451809}</t>
   </si>
   <si>
     <t>{944.0: 1.0}</t>
@@ -2557,7 +2557,7 @@
     <t>{971.0: 0.9989698686582535, 152.0: 0.0010301313417460727}</t>
   </si>
   <si>
-    <t>{972.0: 0.9541375872382853, 615.0: 0.045862412761714856}</t>
+    <t>{972.0: 0.9537688442211056, 615.0: 0.0462311557788945}</t>
   </si>
   <si>
     <t>{973.0: 0.977720207253886, 565.0: 0.02227979274611399}</t>
@@ -2569,7 +2569,7 @@
     <t>{976.0: 1.0}</t>
   </si>
   <si>
-    <t>{978.0: 0.9504155918601316, 489.0: 0.04917254413384411, 935.0: 0.0004118640060240265}</t>
+    <t>{978.0: 0.9504155918601316, 489.0: 0.04917437168691644, 935.0: 0.00041003645295171326}</t>
   </si>
   <si>
     <t>{979.0: 0.9865097588978187, 561.0: 0.013490241102181402}</t>
